--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_16_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1217927.582196022</v>
+        <v>1160340.302927096</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6713983.576188345</v>
+        <v>6713983.576188346</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79.78831291850103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>223.3514602948207</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>116.9396533091769</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>196.7279662276779</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>223.3514602948207</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>223.3514602948207</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>83.86608173022536</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.62199535445798</v>
       </c>
       <c r="S12" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>151.6374502536409</v>
       </c>
     </row>
     <row r="13">
@@ -1530,19 +1530,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>36.66719976966037</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H13" t="n">
         <v>152.5012543802141</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>72.79435090311549</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9407069679841</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>53.45680565633066</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="W14" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>196.7279662276781</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H15" t="n">
         <v>98.62917901016567</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S15" t="n">
         <v>146.2031306503398</v>
       </c>
       <c r="T15" t="n">
-        <v>81.46056965476743</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>87.2615383304704</v>
       </c>
       <c r="V15" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.2416192110823</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.5012543802141</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>196.7279662276781</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>223.3514602948207</v>
       </c>
-      <c r="V16" t="n">
-        <v>223.3514602948207</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>223.3514602948207</v>
+        <v>53.45680565633054</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>207.1387195545146</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T17" t="n">
         <v>212.9407069679841</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>19.48151848670381</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.62917901016567</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="V18" t="n">
-        <v>223.3514602948207</v>
+        <v>89.49190932931937</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>204.4559638180451</v>
@@ -2058,7 +2058,7 @@
         <v>223.3514602948207</v>
       </c>
       <c r="U19" t="n">
-        <v>88.41934570089167</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>223.3514602948207</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>215.6234627044536</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>196.7279662276779</v>
+      </c>
+      <c r="W20" t="n">
         <v>223.3514602948207</v>
       </c>
-      <c r="E20" t="n">
-        <v>53.45680565633056</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>153.681913898184</v>
-      </c>
-      <c r="T20" t="n">
-        <v>212.9407069679841</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>223.3514602948207</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>80.43238169981102</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>62.28752662550169</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S21" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.4439141723478</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>223.3514602948207</v>
       </c>
-      <c r="V21" t="n">
-        <v>223.3514602948207</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.5012543802141</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.8675849203601</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>204.4559638180451</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>55.04064570357831</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>144.43425306451</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>245.6459998021531</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>116.9396533091769</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.9407069679841</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>108.7373391751343</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>146.2031306503398</v>
+        <v>82.2077262469633</v>
       </c>
       <c r="T24" t="n">
-        <v>136.9941333928604</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.5765685078554</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9434841045033</v>
+        <v>137.0138388872213</v>
       </c>
       <c r="U25" t="n">
-        <v>285.9962408350599</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.91668503873898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.9407069679841</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2945647602623</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>87.88848130304483</v>
       </c>
       <c r="Y26" t="n">
-        <v>379.8204235947891</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2648,7 +2648,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H27" t="n">
         <v>98.62917901016567</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>193.4439141723478</v>
+        <v>176.9852355208492</v>
       </c>
       <c r="U27" t="n">
-        <v>58.24631548572019</v>
+        <v>224.5765685078554</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.9434841045033</v>
       </c>
       <c r="U28" t="n">
-        <v>17.83080090615983</v>
+        <v>276.9766829450514</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>273.6043410673169</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.5647802003047</v>
+        <v>255.7593314809502</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>116.9396533091769</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T29" t="n">
         <v>212.9407069679841</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>127.9616686033992</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>193.4439141723478</v>
@@ -2930,7 +2930,7 @@
         <v>224.5765685078554</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>40.74441047424381</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -2939,7 +2939,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.5012543802141</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>94.70005853437118</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>204.4559638180451</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.9434841045033</v>
       </c>
       <c r="U31" t="n">
-        <v>285.9962408350599</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>171.5532981081093</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>93.95256388880514</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>239.5713840481091</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>134.7979601029858</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>146.2031306503398</v>
       </c>
       <c r="T33" t="n">
-        <v>193.4439141723478</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>224.5765685078554</v>
@@ -3173,10 +3173,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>41.59190440171783</v>
+        <v>37.88172084838718</v>
       </c>
     </row>
     <row r="34">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.5012543802141</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.41055056549304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>204.4559638180451</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9434841045033</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>171.4569620557537</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>149.4578593151378</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>223.3514602948207</v>
+        <v>196.7279662276782</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>116.9396533091769</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>18.62199535445797</v>
       </c>
       <c r="S36" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>50.79267090922265</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>223.3514602948207</v>
+        <v>206.7549047643994</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>127.2041170035618</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>204.4559638180451</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="V37" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>196.7279662276782</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.41934570089187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="C38" t="n">
-        <v>196.7279662276781</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="F38" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.9407069679841</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>207.138719554515</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.4439141723478</v>
+        <v>79.26467208308186</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="W39" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>91.13675922619817</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>149.5101907500746</v>
       </c>
       <c r="U40" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.7279662276781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>149.4578593151382</v>
       </c>
       <c r="C41" t="n">
-        <v>79.78831291850115</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>223.3514602948207</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>72.11156483047148</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>134.7979601029858</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>146.2031306503398</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>174.8730019045058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2114796046171</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="U43" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="V43" t="n">
-        <v>223.3514602948207</v>
+        <v>196.7279662276782</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>223.3514602948207</v>
       </c>
       <c r="C44" t="n">
-        <v>196.7279662276781</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="W44" t="n">
-        <v>223.3514602948207</v>
+        <v>43.04605232949404</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>140.9240647540691</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>134.7979601029858</v>
+        <v>11.94664549543455</v>
       </c>
       <c r="H45" t="n">
-        <v>98.62917901016567</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.8675849203601</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>223.3514602948207</v>
       </c>
-      <c r="U46" t="n">
-        <v>223.3514602948207</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
       <c r="X46" t="n">
-        <v>170.007724598577</v>
+        <v>54.19980148607159</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.86811682358566</v>
+        <v>442.1907698766146</v>
       </c>
       <c r="C11" t="n">
-        <v>17.86811682358566</v>
+        <v>361.5965144033812</v>
       </c>
       <c r="D11" t="n">
-        <v>17.86811682358566</v>
+        <v>361.5965144033812</v>
       </c>
       <c r="E11" t="n">
-        <v>17.86811682358566</v>
+        <v>361.5965144033812</v>
       </c>
       <c r="F11" t="n">
-        <v>17.86811682358566</v>
+        <v>361.5965144033812</v>
       </c>
       <c r="G11" t="n">
-        <v>17.86811682358566</v>
+        <v>135.9889787520472</v>
       </c>
       <c r="H11" t="n">
-        <v>17.86811682358566</v>
+        <v>135.9889787520472</v>
       </c>
       <c r="I11" t="n">
         <v>17.86811682358566</v>
       </c>
       <c r="J11" t="n">
-        <v>35.52959283031284</v>
+        <v>35.52959283031271</v>
       </c>
       <c r="K11" t="n">
-        <v>111.4696223888714</v>
+        <v>111.4696223888712</v>
       </c>
       <c r="L11" t="n">
-        <v>241.6591619445102</v>
+        <v>241.6591619445103</v>
       </c>
       <c r="M11" t="n">
-        <v>417.3978110468829</v>
+        <v>417.397811046883</v>
       </c>
       <c r="N11" t="n">
         <v>600.4785583901952</v>
       </c>
       <c r="O11" t="n">
-        <v>760.3546368314447</v>
+        <v>760.3546368314449</v>
       </c>
       <c r="P11" t="n">
         <v>863.1666950797691</v>
@@ -5074,19 +5074,19 @@
         <v>893.4058411792827</v>
       </c>
       <c r="U11" t="n">
-        <v>694.6907237775878</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="V11" t="n">
-        <v>469.0831881262537</v>
+        <v>667.7983055279486</v>
       </c>
       <c r="W11" t="n">
-        <v>243.4756524749197</v>
+        <v>667.7983055279486</v>
       </c>
       <c r="X11" t="n">
-        <v>243.4756524749197</v>
+        <v>442.1907698766146</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4756524749197</v>
+        <v>442.1907698766146</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.3473886802004</v>
+        <v>495.8190675399699</v>
       </c>
       <c r="C12" t="n">
-        <v>147.3473886802004</v>
+        <v>323.0659524617871</v>
       </c>
       <c r="D12" t="n">
-        <v>62.63417481128592</v>
+        <v>175.477645820731</v>
       </c>
       <c r="E12" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="F12" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="G12" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="H12" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="I12" t="n">
         <v>17.86811682358566</v>
@@ -5123,19 +5123,19 @@
         <v>17.86811682358566</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9235922506334</v>
+        <v>80.68917959631133</v>
       </c>
       <c r="L12" t="n">
-        <v>261.5587413755042</v>
+        <v>210.324328721182</v>
       </c>
       <c r="M12" t="n">
-        <v>431.7097923772243</v>
+        <v>380.4753797229021</v>
       </c>
       <c r="N12" t="n">
-        <v>620.4126641915598</v>
+        <v>569.1782515372375</v>
       </c>
       <c r="O12" t="n">
-        <v>771.3746254845356</v>
+        <v>771.3746254845357</v>
       </c>
       <c r="P12" t="n">
         <v>873.6851688765562</v>
@@ -5144,28 +5144,28 @@
         <v>893.4058411792827</v>
       </c>
       <c r="R12" t="n">
-        <v>893.4058411792827</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="S12" t="n">
-        <v>745.7259112294445</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="T12" t="n">
-        <v>745.7259112294445</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="U12" t="n">
-        <v>745.7259112294445</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="V12" t="n">
-        <v>745.7259112294445</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="W12" t="n">
-        <v>520.1183755781104</v>
+        <v>648.9882092103143</v>
       </c>
       <c r="X12" t="n">
-        <v>520.1183755781104</v>
+        <v>648.9882092103143</v>
       </c>
       <c r="Y12" t="n">
-        <v>314.3899398017609</v>
+        <v>495.8190675399699</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.4065797761854</v>
+        <v>509.484468050635</v>
       </c>
       <c r="C13" t="n">
-        <v>357.4065797761854</v>
+        <v>340.4576469080064</v>
       </c>
       <c r="D13" t="n">
-        <v>320.3690042512759</v>
+        <v>340.4576469080064</v>
       </c>
       <c r="E13" t="n">
-        <v>171.909787914711</v>
+        <v>340.4576469080064</v>
       </c>
       <c r="F13" t="n">
-        <v>171.909787914711</v>
+        <v>340.4576469080064</v>
       </c>
       <c r="G13" t="n">
         <v>171.909787914711</v>
@@ -5202,49 +5202,49 @@
         <v>17.86811682358566</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3909759492215</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="L13" t="n">
-        <v>161.8189598438978</v>
+        <v>206.145349967898</v>
       </c>
       <c r="M13" t="n">
-        <v>370.9238034009228</v>
+        <v>415.250193524923</v>
       </c>
       <c r="N13" t="n">
-        <v>580.1978630453084</v>
+        <v>624.5242531693085</v>
       </c>
       <c r="O13" t="n">
-        <v>758.1597325595596</v>
+        <v>802.4861226835596</v>
       </c>
       <c r="P13" t="n">
-        <v>887.2143743976802</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="Q13" t="n">
         <v>893.4058411792827</v>
       </c>
       <c r="R13" t="n">
-        <v>764.9168341049779</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="S13" t="n">
-        <v>764.9168341049779</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="T13" t="n">
-        <v>764.9168341049779</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="U13" t="n">
-        <v>764.9168341049779</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="V13" t="n">
-        <v>539.3092984536438</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="W13" t="n">
-        <v>539.3092984536438</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="X13" t="n">
-        <v>539.3092984536438</v>
+        <v>764.9168341049777</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.3092984536438</v>
+        <v>691.3871867280934</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.86811682358566</v>
+        <v>469.0831881262537</v>
       </c>
       <c r="C14" t="n">
-        <v>17.86811682358566</v>
+        <v>469.0831881262537</v>
       </c>
       <c r="D14" t="n">
-        <v>17.86811682358566</v>
+        <v>243.4756524749197</v>
       </c>
       <c r="E14" t="n">
         <v>17.86811682358566</v>
@@ -5278,16 +5278,16 @@
         <v>17.86811682358566</v>
       </c>
       <c r="J14" t="n">
-        <v>35.52959283031284</v>
+        <v>35.52959283031282</v>
       </c>
       <c r="K14" t="n">
         <v>111.4696223888714</v>
       </c>
       <c r="L14" t="n">
-        <v>241.6591619445104</v>
+        <v>241.6591619445106</v>
       </c>
       <c r="M14" t="n">
-        <v>417.3978110468831</v>
+        <v>417.3978110468832</v>
       </c>
       <c r="N14" t="n">
         <v>600.4785583901953</v>
@@ -5305,25 +5305,25 @@
         <v>893.4058411792828</v>
       </c>
       <c r="S14" t="n">
-        <v>738.1715847164706</v>
+        <v>893.4058411792828</v>
       </c>
       <c r="T14" t="n">
-        <v>523.0799615164867</v>
+        <v>893.4058411792828</v>
       </c>
       <c r="U14" t="n">
-        <v>523.0799615164867</v>
+        <v>893.4058411792828</v>
       </c>
       <c r="V14" t="n">
+        <v>667.7983055279487</v>
+      </c>
+      <c r="W14" t="n">
+        <v>667.7983055279487</v>
+      </c>
+      <c r="X14" t="n">
+        <v>667.7983055279487</v>
+      </c>
+      <c r="Y14" t="n">
         <v>469.0831881262537</v>
-      </c>
-      <c r="W14" t="n">
-        <v>243.4756524749197</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17.86811682358566</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>17.86811682358566</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>437.8349718864263</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="C15" t="n">
-        <v>265.0818568082435</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="D15" t="n">
-        <v>117.4935501671874</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="E15" t="n">
-        <v>117.4935501671874</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="F15" t="n">
-        <v>117.4935501671874</v>
+        <v>298.4191638144692</v>
       </c>
       <c r="G15" t="n">
-        <v>117.4935501671874</v>
+        <v>162.2596081548876</v>
       </c>
       <c r="H15" t="n">
-        <v>17.86811682358566</v>
+        <v>62.63417481128592</v>
       </c>
       <c r="I15" t="n">
         <v>17.86811682358566</v>
@@ -5360,19 +5360,19 @@
         <v>17.86811682358566</v>
       </c>
       <c r="K15" t="n">
-        <v>80.68917959631136</v>
+        <v>131.9235922506334</v>
       </c>
       <c r="L15" t="n">
-        <v>210.3243287211821</v>
+        <v>261.5587413755042</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4753797229023</v>
+        <v>431.7097923772243</v>
       </c>
       <c r="N15" t="n">
-        <v>569.1782515372378</v>
+        <v>620.4126641915598</v>
       </c>
       <c r="O15" t="n">
-        <v>720.1402128302136</v>
+        <v>771.3746254845357</v>
       </c>
       <c r="P15" t="n">
         <v>873.6851688765563</v>
@@ -5381,28 +5381,28 @@
         <v>893.4058411792828</v>
       </c>
       <c r="R15" t="n">
-        <v>893.4058411792828</v>
+        <v>874.5957448616484</v>
       </c>
       <c r="S15" t="n">
-        <v>745.7259112294446</v>
+        <v>726.9158149118102</v>
       </c>
       <c r="T15" t="n">
-        <v>663.4425075377603</v>
+        <v>531.5179218084286</v>
       </c>
       <c r="U15" t="n">
-        <v>663.4425075377603</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="V15" t="n">
-        <v>437.8349718864263</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="W15" t="n">
-        <v>437.8349718864263</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="X15" t="n">
-        <v>437.8349718864263</v>
+        <v>443.3749537978524</v>
       </c>
       <c r="Y15" t="n">
-        <v>437.8349718864263</v>
+        <v>443.3749537978524</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.86811682358566</v>
+        <v>442.1907698766147</v>
       </c>
       <c r="C16" t="n">
-        <v>17.86811682358566</v>
+        <v>273.1639487339861</v>
       </c>
       <c r="D16" t="n">
-        <v>17.86811682358566</v>
+        <v>171.909787914711</v>
       </c>
       <c r="E16" t="n">
-        <v>17.86811682358566</v>
+        <v>171.909787914711</v>
       </c>
       <c r="F16" t="n">
-        <v>17.86811682358566</v>
+        <v>171.909787914711</v>
       </c>
       <c r="G16" t="n">
-        <v>17.86811682358566</v>
+        <v>171.909787914711</v>
       </c>
       <c r="H16" t="n">
         <v>17.86811682358566</v>
@@ -5451,10 +5451,10 @@
         <v>728.0471122949443</v>
       </c>
       <c r="O16" t="n">
-        <v>758.1597325595598</v>
+        <v>764.3511993411622</v>
       </c>
       <c r="P16" t="n">
-        <v>887.2143743976803</v>
+        <v>893.4058411792828</v>
       </c>
       <c r="Q16" t="n">
         <v>893.4058411792828</v>
@@ -5463,25 +5463,25 @@
         <v>893.4058411792828</v>
       </c>
       <c r="S16" t="n">
-        <v>694.6907237775878</v>
+        <v>893.4058411792828</v>
       </c>
       <c r="T16" t="n">
-        <v>694.6907237775878</v>
+        <v>667.7983055279487</v>
       </c>
       <c r="U16" t="n">
-        <v>469.0831881262537</v>
+        <v>667.7983055279487</v>
       </c>
       <c r="V16" t="n">
-        <v>243.4756524749197</v>
+        <v>667.7983055279487</v>
       </c>
       <c r="W16" t="n">
-        <v>243.4756524749197</v>
+        <v>442.1907698766147</v>
       </c>
       <c r="X16" t="n">
-        <v>17.86811682358566</v>
+        <v>442.1907698766147</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.86811682358566</v>
+        <v>442.1907698766147</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>678.3142179792989</v>
+        <v>297.4724258651526</v>
       </c>
       <c r="C17" t="n">
-        <v>452.7066823279648</v>
+        <v>243.4756524749197</v>
       </c>
       <c r="D17" t="n">
-        <v>452.7066823279648</v>
+        <v>243.4756524749197</v>
       </c>
       <c r="E17" t="n">
-        <v>227.0991466766308</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="F17" t="n">
-        <v>227.0991466766308</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="G17" t="n">
         <v>17.86811682358566</v>
@@ -5521,46 +5521,46 @@
         <v>111.4696223888714</v>
       </c>
       <c r="L17" t="n">
-        <v>241.6591619445102</v>
+        <v>241.6591619445105</v>
       </c>
       <c r="M17" t="n">
-        <v>417.3978110468829</v>
+        <v>417.3978110468832</v>
       </c>
       <c r="N17" t="n">
-        <v>600.4785583901952</v>
+        <v>600.4785583901955</v>
       </c>
       <c r="O17" t="n">
-        <v>760.3546368314449</v>
+        <v>760.3546368314452</v>
       </c>
       <c r="P17" t="n">
-        <v>863.1666950797692</v>
+        <v>863.1666950797695</v>
       </c>
       <c r="Q17" t="n">
-        <v>893.4058411792828</v>
+        <v>893.4058411792831</v>
       </c>
       <c r="R17" t="n">
-        <v>893.4058411792828</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="S17" t="n">
-        <v>893.4058411792828</v>
+        <v>738.1715847164705</v>
       </c>
       <c r="T17" t="n">
-        <v>678.3142179792989</v>
+        <v>523.0799615164866</v>
       </c>
       <c r="U17" t="n">
-        <v>678.3142179792989</v>
+        <v>523.0799615164866</v>
       </c>
       <c r="V17" t="n">
-        <v>678.3142179792989</v>
+        <v>523.0799615164866</v>
       </c>
       <c r="W17" t="n">
-        <v>678.3142179792989</v>
+        <v>523.0799615164866</v>
       </c>
       <c r="X17" t="n">
-        <v>678.3142179792989</v>
+        <v>297.4724258651526</v>
       </c>
       <c r="Y17" t="n">
-        <v>678.3142179792989</v>
+        <v>297.4724258651526</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>294.7813806660537</v>
+        <v>175.477645820731</v>
       </c>
       <c r="C18" t="n">
-        <v>294.7813806660537</v>
+        <v>175.477645820731</v>
       </c>
       <c r="D18" t="n">
-        <v>275.1030791643327</v>
+        <v>175.477645820731</v>
       </c>
       <c r="E18" t="n">
-        <v>117.4935501671874</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="F18" t="n">
-        <v>117.4935501671874</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="G18" t="n">
-        <v>117.4935501671874</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="H18" t="n">
         <v>17.86811682358566</v>
@@ -5597,49 +5597,49 @@
         <v>17.86811682358566</v>
       </c>
       <c r="K18" t="n">
-        <v>80.68917959631136</v>
+        <v>131.9235922506334</v>
       </c>
       <c r="L18" t="n">
-        <v>210.3243287211821</v>
+        <v>261.5587413755042</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2947184996873</v>
+        <v>431.7097923772243</v>
       </c>
       <c r="N18" t="n">
         <v>620.4126641915598</v>
       </c>
       <c r="O18" t="n">
-        <v>771.3746254845357</v>
+        <v>771.3746254845356</v>
       </c>
       <c r="P18" t="n">
-        <v>873.6851688765563</v>
+        <v>873.6851688765562</v>
       </c>
       <c r="Q18" t="n">
-        <v>893.4058411792828</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="R18" t="n">
-        <v>874.5957448616484</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="S18" t="n">
-        <v>726.9158149118102</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="T18" t="n">
-        <v>726.9158149118102</v>
+        <v>698.007948075901</v>
       </c>
       <c r="U18" t="n">
-        <v>726.9158149118102</v>
+        <v>472.400412424567</v>
       </c>
       <c r="V18" t="n">
-        <v>501.3082792604762</v>
+        <v>382.0045444151535</v>
       </c>
       <c r="W18" t="n">
-        <v>501.3082792604762</v>
+        <v>382.0045444151535</v>
       </c>
       <c r="X18" t="n">
-        <v>294.7813806660537</v>
+        <v>175.477645820731</v>
       </c>
       <c r="Y18" t="n">
-        <v>294.7813806660537</v>
+        <v>175.477645820731</v>
       </c>
     </row>
     <row r="19">
@@ -5679,40 +5679,40 @@
         <v>17.86811682358566</v>
       </c>
       <c r="L19" t="n">
-        <v>161.8189598438979</v>
+        <v>206.1453499678981</v>
       </c>
       <c r="M19" t="n">
-        <v>370.923803400923</v>
+        <v>415.2501935249231</v>
       </c>
       <c r="N19" t="n">
-        <v>580.1978630453085</v>
+        <v>624.5242531693086</v>
       </c>
       <c r="O19" t="n">
-        <v>758.1597325595598</v>
+        <v>802.4861226835599</v>
       </c>
       <c r="P19" t="n">
-        <v>887.2143743976803</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="Q19" t="n">
-        <v>893.4058411792828</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="R19" t="n">
-        <v>764.9168341049779</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="S19" t="n">
-        <v>558.3956585311948</v>
+        <v>686.8846656054998</v>
       </c>
       <c r="T19" t="n">
-        <v>332.7881228798608</v>
+        <v>461.2771299541657</v>
       </c>
       <c r="U19" t="n">
-        <v>243.4756524749197</v>
+        <v>461.2771299541657</v>
       </c>
       <c r="V19" t="n">
-        <v>17.86811682358566</v>
+        <v>235.6695943028317</v>
       </c>
       <c r="W19" t="n">
-        <v>17.86811682358566</v>
+        <v>235.6695943028317</v>
       </c>
       <c r="X19" t="n">
         <v>17.86811682358566</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4724258651526</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4724258651526</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="D20" t="n">
-        <v>71.86489021381854</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="E20" t="n">
         <v>17.86811682358566</v>
@@ -5752,22 +5752,22 @@
         <v>17.86811682358566</v>
       </c>
       <c r="J20" t="n">
-        <v>35.52959283031259</v>
+        <v>35.52959283031284</v>
       </c>
       <c r="K20" t="n">
-        <v>111.4696223888711</v>
+        <v>111.4696223888714</v>
       </c>
       <c r="L20" t="n">
-        <v>241.6591619445103</v>
+        <v>241.6591619445104</v>
       </c>
       <c r="M20" t="n">
-        <v>417.397811046883</v>
+        <v>417.3978110468831</v>
       </c>
       <c r="N20" t="n">
         <v>600.4785583901953</v>
       </c>
       <c r="O20" t="n">
-        <v>760.3546368314451</v>
+        <v>760.354636831445</v>
       </c>
       <c r="P20" t="n">
         <v>863.1666950797691</v>
@@ -5779,25 +5779,25 @@
         <v>893.4058411792827</v>
       </c>
       <c r="S20" t="n">
-        <v>738.1715847164705</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="T20" t="n">
-        <v>523.0799615164866</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4724258651526</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4724258651526</v>
+        <v>694.6907237775878</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4724258651526</v>
+        <v>469.0831881262537</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4724258651526</v>
+        <v>469.0831881262537</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4724258651526</v>
+        <v>243.4756524749197</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.11294682339476</v>
+        <v>443.2597734339647</v>
       </c>
       <c r="C21" t="n">
-        <v>17.86811682358566</v>
+        <v>270.5066583557819</v>
       </c>
       <c r="D21" t="n">
-        <v>17.86811682358566</v>
+        <v>270.5066583557819</v>
       </c>
       <c r="E21" t="n">
-        <v>17.86811682358566</v>
+        <v>207.5899647946691</v>
       </c>
       <c r="F21" t="n">
-        <v>17.86811682358566</v>
+        <v>62.63417481128592</v>
       </c>
       <c r="G21" t="n">
-        <v>17.86811682358566</v>
+        <v>62.63417481128592</v>
       </c>
       <c r="H21" t="n">
-        <v>17.86811682358566</v>
+        <v>62.63417481128592</v>
       </c>
       <c r="I21" t="n">
         <v>17.86811682358566</v>
@@ -5855,28 +5855,28 @@
         <v>893.4058411792827</v>
       </c>
       <c r="R21" t="n">
-        <v>893.4058411792827</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="S21" t="n">
-        <v>745.7259112294445</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="T21" t="n">
-        <v>550.3280181260628</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="U21" t="n">
-        <v>324.7204824747288</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="V21" t="n">
-        <v>99.11294682339476</v>
+        <v>874.5957448616483</v>
       </c>
       <c r="W21" t="n">
-        <v>99.11294682339476</v>
+        <v>648.9882092103143</v>
       </c>
       <c r="X21" t="n">
-        <v>99.11294682339476</v>
+        <v>648.9882092103143</v>
       </c>
       <c r="Y21" t="n">
-        <v>99.11294682339476</v>
+        <v>443.2597734339647</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186.8949379662143</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="C22" t="n">
-        <v>17.86811682358566</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="D22" t="n">
-        <v>17.86811682358566</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="E22" t="n">
-        <v>17.86811682358566</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="F22" t="n">
-        <v>17.86811682358566</v>
+        <v>464.5663185447337</v>
       </c>
       <c r="G22" t="n">
-        <v>17.86811682358566</v>
+        <v>296.0184595514384</v>
       </c>
       <c r="H22" t="n">
-        <v>17.86811682358566</v>
+        <v>141.976788460313</v>
       </c>
       <c r="I22" t="n">
         <v>17.86811682358566</v>
@@ -5919,43 +5919,43 @@
         <v>206.1453499678981</v>
       </c>
       <c r="M22" t="n">
-        <v>370.9238034009228</v>
+        <v>415.2501935249231</v>
       </c>
       <c r="N22" t="n">
-        <v>580.1978630453084</v>
+        <v>624.5242531693086</v>
       </c>
       <c r="O22" t="n">
-        <v>758.1597325595596</v>
+        <v>802.4861226835599</v>
       </c>
       <c r="P22" t="n">
-        <v>887.2143743976802</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="Q22" t="n">
         <v>893.4058411792827</v>
       </c>
       <c r="R22" t="n">
-        <v>764.9168341049779</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="S22" t="n">
-        <v>558.3956585311948</v>
+        <v>893.4058411792827</v>
       </c>
       <c r="T22" t="n">
-        <v>558.3956585311948</v>
+        <v>667.7983055279486</v>
       </c>
       <c r="U22" t="n">
-        <v>558.3956585311948</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="V22" t="n">
-        <v>558.3956585311948</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="W22" t="n">
-        <v>332.7881228798608</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="X22" t="n">
-        <v>186.8949379662143</v>
+        <v>612.2016937061524</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.8949379662143</v>
+        <v>612.2016937061524</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>153.8570955756329</v>
+        <v>654.5555220119145</v>
       </c>
       <c r="C23" t="n">
-        <v>153.8570955756329</v>
+        <v>283.8635061745987</v>
       </c>
       <c r="D23" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="E23" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="F23" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="G23" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H23" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I23" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J23" t="n">
-        <v>53.39770965389846</v>
+        <v>53.39770965389849</v>
       </c>
       <c r="K23" t="n">
-        <v>463.0778559957283</v>
+        <v>129.337739212457</v>
       </c>
       <c r="L23" t="n">
-        <v>593.2673955513674</v>
+        <v>259.5272787680962</v>
       </c>
       <c r="M23" t="n">
-        <v>1035.503286935112</v>
+        <v>701.7631701518413</v>
       </c>
       <c r="N23" t="n">
-        <v>1477.739178318857</v>
+        <v>992.9250722435454</v>
       </c>
       <c r="O23" t="n">
-        <v>1637.615256760107</v>
+        <v>1435.160963627291</v>
       </c>
       <c r="P23" t="n">
-        <v>1754.595050522322</v>
+        <v>1537.973021875615</v>
       </c>
       <c r="Q23" t="n">
-        <v>1784.834196621835</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R23" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S23" t="n">
-        <v>1631.577425895753</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="T23" t="n">
-        <v>1416.485802695769</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="U23" t="n">
-        <v>1416.485802695769</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="V23" t="n">
-        <v>1306.650106559269</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="W23" t="n">
-        <v>1306.650106559269</v>
+        <v>1432.740857105481</v>
       </c>
       <c r="X23" t="n">
-        <v>932.0424306691995</v>
+        <v>1432.740857105481</v>
       </c>
       <c r="Y23" t="n">
-        <v>541.4494289002744</v>
+        <v>1042.147855336556</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>356.0776553664102</v>
+        <v>410.8649357101997</v>
       </c>
       <c r="C24" t="n">
-        <v>183.3245402882274</v>
+        <v>238.1118206320169</v>
       </c>
       <c r="D24" t="n">
-        <v>35.7362336471713</v>
+        <v>238.1118206320169</v>
       </c>
       <c r="E24" t="n">
-        <v>35.7362336471713</v>
+        <v>80.5022916348716</v>
       </c>
       <c r="F24" t="n">
-        <v>35.7362336471713</v>
+        <v>80.5022916348716</v>
       </c>
       <c r="G24" t="n">
-        <v>35.7362336471713</v>
+        <v>80.5022916348716</v>
       </c>
       <c r="H24" t="n">
-        <v>35.7362336471713</v>
+        <v>80.5022916348716</v>
       </c>
       <c r="I24" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J24" t="n">
-        <v>142.3381228547165</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K24" t="n">
-        <v>205.1591856274422</v>
+        <v>98.55729641989704</v>
       </c>
       <c r="L24" t="n">
-        <v>647.395077011187</v>
+        <v>540.7931878036422</v>
       </c>
       <c r="M24" t="n">
-        <v>817.5461280129072</v>
+        <v>983.0290791873874</v>
       </c>
       <c r="N24" t="n">
-        <v>1006.248999827243</v>
+        <v>1171.731951001723</v>
       </c>
       <c r="O24" t="n">
-        <v>1448.484891210987</v>
+        <v>1613.967842385468</v>
       </c>
       <c r="P24" t="n">
-        <v>1550.795434603008</v>
+        <v>1716.278385777488</v>
       </c>
       <c r="Q24" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R24" t="n">
-        <v>1768.001586040931</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S24" t="n">
-        <v>1620.321656091092</v>
+        <v>1703.773575038402</v>
       </c>
       <c r="T24" t="n">
-        <v>1481.943743573052</v>
+        <v>1703.773575038402</v>
       </c>
       <c r="U24" t="n">
-        <v>1255.098724878248</v>
+        <v>1476.928556343598</v>
       </c>
       <c r="V24" t="n">
-        <v>1020.847481403849</v>
+        <v>1242.677312869199</v>
       </c>
       <c r="W24" t="n">
-        <v>768.3329897371823</v>
+        <v>990.1628212025322</v>
       </c>
       <c r="X24" t="n">
-        <v>561.8060911427598</v>
+        <v>783.6359226081097</v>
       </c>
       <c r="Y24" t="n">
-        <v>356.0776553664102</v>
+        <v>577.9074868317601</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.7362336471713</v>
+        <v>503.2539822240207</v>
       </c>
       <c r="C25" t="n">
-        <v>35.7362336471713</v>
+        <v>503.2539822240207</v>
       </c>
       <c r="D25" t="n">
-        <v>35.7362336471713</v>
+        <v>352.7433089770315</v>
       </c>
       <c r="E25" t="n">
-        <v>35.7362336471713</v>
+        <v>204.2840926404666</v>
       </c>
       <c r="F25" t="n">
-        <v>35.7362336471713</v>
+        <v>204.2840926404666</v>
       </c>
       <c r="G25" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H25" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K25" t="n">
-        <v>139.2590927728071</v>
+        <v>139.2590927728072</v>
       </c>
       <c r="L25" t="n">
         <v>327.5363259171195</v>
       </c>
       <c r="M25" t="n">
-        <v>536.6411694741445</v>
+        <v>536.6411694741446</v>
       </c>
       <c r="N25" t="n">
         <v>745.9152291185301</v>
@@ -6177,22 +6177,22 @@
         <v>930.6342001781993</v>
       </c>
       <c r="T25" t="n">
-        <v>704.428660678701</v>
+        <v>792.2363831204</v>
       </c>
       <c r="U25" t="n">
-        <v>415.5435689261153</v>
+        <v>792.2363831204</v>
       </c>
       <c r="V25" t="n">
-        <v>415.5435689261153</v>
+        <v>792.2363831204</v>
       </c>
       <c r="W25" t="n">
-        <v>126.5611680297359</v>
+        <v>503.2539822240207</v>
       </c>
       <c r="X25" t="n">
-        <v>126.5611680297359</v>
+        <v>503.2539822240207</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.7362336471713</v>
+        <v>503.2539822240207</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>447.1441765568085</v>
+        <v>406.4282494844871</v>
       </c>
       <c r="C26" t="n">
-        <v>447.1441765568085</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="D26" t="n">
-        <v>447.1441765568085</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="E26" t="n">
-        <v>447.1441765568085</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="F26" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="G26" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H26" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I26" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J26" t="n">
-        <v>227.4995846350656</v>
+        <v>129.8148397799503</v>
       </c>
       <c r="K26" t="n">
-        <v>303.4396141936242</v>
+        <v>205.7548693385088</v>
       </c>
       <c r="L26" t="n">
-        <v>609.4126168019877</v>
+        <v>647.990760722254</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.648508185732</v>
+        <v>1090.226652105999</v>
       </c>
       <c r="N26" t="n">
-        <v>1493.884399569477</v>
+        <v>1273.307399449312</v>
       </c>
       <c r="O26" t="n">
-        <v>1653.760478010727</v>
+        <v>1433.183477890561</v>
       </c>
       <c r="P26" t="n">
-        <v>1756.572536259051</v>
+        <v>1535.995536138886</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.811682358565</v>
+        <v>1784.834196621837</v>
       </c>
       <c r="R26" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S26" t="n">
-        <v>1631.577425895753</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="T26" t="n">
-        <v>1416.485802695769</v>
+        <v>1571.720059158583</v>
       </c>
       <c r="U26" t="n">
-        <v>1162.652908998534</v>
+        <v>1571.720059158583</v>
       </c>
       <c r="V26" t="n">
-        <v>830.8011700868985</v>
+        <v>1239.868320246947</v>
       </c>
       <c r="W26" t="n">
-        <v>830.8011700868985</v>
+        <v>885.7974949938615</v>
       </c>
       <c r="X26" t="n">
-        <v>830.8011700868985</v>
+        <v>797.0212512534122</v>
       </c>
       <c r="Y26" t="n">
-        <v>447.1441765568085</v>
+        <v>406.4282494844871</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>758.2684076905405</v>
+        <v>894.4279633501221</v>
       </c>
       <c r="C27" t="n">
-        <v>585.5152926123576</v>
+        <v>721.6748482719393</v>
       </c>
       <c r="D27" t="n">
-        <v>437.9269859713014</v>
+        <v>574.0865416308831</v>
       </c>
       <c r="E27" t="n">
-        <v>280.3174569741561</v>
+        <v>416.4770126337378</v>
       </c>
       <c r="F27" t="n">
-        <v>135.361666990773</v>
+        <v>271.5212226503546</v>
       </c>
       <c r="G27" t="n">
         <v>135.361666990773</v>
       </c>
       <c r="H27" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J27" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K27" t="n">
         <v>370.850704448048</v>
       </c>
       <c r="L27" t="n">
-        <v>500.4858535729187</v>
+        <v>813.0865958317931</v>
       </c>
       <c r="M27" t="n">
-        <v>942.7217449566635</v>
+        <v>983.2376468335133</v>
       </c>
       <c r="N27" t="n">
-        <v>1384.957636340408</v>
+        <v>1171.940518647849</v>
       </c>
       <c r="O27" t="n">
-        <v>1535.919597633384</v>
+        <v>1336.89120007214</v>
       </c>
       <c r="P27" t="n">
-        <v>1638.230141025405</v>
+        <v>1767.09101005584</v>
       </c>
       <c r="Q27" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R27" t="n">
-        <v>1768.001586040931</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S27" t="n">
-        <v>1620.321656091092</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="T27" t="n">
-        <v>1424.923762987711</v>
+        <v>1608.038717185992</v>
       </c>
       <c r="U27" t="n">
-        <v>1366.089100880923</v>
+        <v>1381.193698491188</v>
       </c>
       <c r="V27" t="n">
-        <v>1131.837857406523</v>
+        <v>1146.942455016789</v>
       </c>
       <c r="W27" t="n">
-        <v>1131.837857406523</v>
+        <v>894.4279633501221</v>
       </c>
       <c r="X27" t="n">
-        <v>925.3109588121009</v>
+        <v>894.4279633501221</v>
       </c>
       <c r="Y27" t="n">
-        <v>925.3109588121009</v>
+        <v>894.4279633501221</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>186.2469068941606</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="C28" t="n">
-        <v>186.2469068941606</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="D28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="E28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="F28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="G28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J28" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K28" t="n">
-        <v>139.2590927728071</v>
+        <v>139.2590927728072</v>
       </c>
       <c r="L28" t="n">
         <v>327.5363259171195</v>
       </c>
       <c r="M28" t="n">
-        <v>536.6411694741445</v>
+        <v>536.6411694741446</v>
       </c>
       <c r="N28" t="n">
         <v>745.9152291185301</v>
@@ -6408,28 +6408,28 @@
         <v>1059.123207252504</v>
       </c>
       <c r="R28" t="n">
-        <v>930.6342001781993</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="S28" t="n">
-        <v>930.6342001781993</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="T28" t="n">
-        <v>930.6342001781993</v>
+        <v>832.917667753006</v>
       </c>
       <c r="U28" t="n">
-        <v>912.6232901719773</v>
+        <v>553.1432405357823</v>
       </c>
       <c r="V28" t="n">
-        <v>657.1320264679982</v>
+        <v>553.1432405357823</v>
       </c>
       <c r="W28" t="n">
-        <v>368.149625571619</v>
+        <v>264.1608396394029</v>
       </c>
       <c r="X28" t="n">
-        <v>368.149625571619</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="Y28" t="n">
-        <v>368.149625571619</v>
+        <v>35.73623364717133</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1217.649233905496</v>
+        <v>654.2857934810588</v>
       </c>
       <c r="C29" t="n">
-        <v>846.9572180681799</v>
+        <v>654.2857934810588</v>
       </c>
       <c r="D29" t="n">
-        <v>570.5891967880618</v>
+        <v>294.0789927188382</v>
       </c>
       <c r="E29" t="n">
-        <v>570.5891967880618</v>
+        <v>294.0789927188382</v>
       </c>
       <c r="F29" t="n">
-        <v>570.5891967880618</v>
+        <v>294.0789927188382</v>
       </c>
       <c r="G29" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H29" t="n">
-        <v>153.8570955756329</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I29" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J29" t="n">
         <v>227.4995846350656</v>
@@ -6469,46 +6469,46 @@
         <v>303.4396141936242</v>
       </c>
       <c r="L29" t="n">
-        <v>433.6291537492633</v>
+        <v>609.4126168019884</v>
       </c>
       <c r="M29" t="n">
-        <v>609.367802851636</v>
+        <v>1051.648508185734</v>
       </c>
       <c r="N29" t="n">
-        <v>1051.603694235381</v>
+        <v>1493.884399569479</v>
       </c>
       <c r="O29" t="n">
-        <v>1211.479772676631</v>
+        <v>1653.760478010729</v>
       </c>
       <c r="P29" t="n">
-        <v>1645.615780858313</v>
+        <v>1756.572536259053</v>
       </c>
       <c r="Q29" t="n">
-        <v>1784.834196621835</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R29" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S29" t="n">
-        <v>1786.811682358565</v>
+        <v>1631.577425895754</v>
       </c>
       <c r="T29" t="n">
-        <v>1571.720059158581</v>
+        <v>1416.48580269577</v>
       </c>
       <c r="U29" t="n">
-        <v>1571.720059158581</v>
+        <v>1416.48580269577</v>
       </c>
       <c r="V29" t="n">
-        <v>1571.720059158581</v>
+        <v>1416.48580269577</v>
       </c>
       <c r="W29" t="n">
-        <v>1217.649233905496</v>
+        <v>1416.48580269577</v>
       </c>
       <c r="X29" t="n">
-        <v>1217.649233905496</v>
+        <v>1041.8781268057</v>
       </c>
       <c r="Y29" t="n">
-        <v>1217.649233905496</v>
+        <v>1041.8781268057</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>337.7435594358584</v>
+        <v>658.6429743469387</v>
       </c>
       <c r="C30" t="n">
-        <v>164.9904443576756</v>
+        <v>485.8898592687559</v>
       </c>
       <c r="D30" t="n">
-        <v>164.9904443576756</v>
+        <v>338.3015526276998</v>
       </c>
       <c r="E30" t="n">
-        <v>164.9904443576756</v>
+        <v>180.6920236305545</v>
       </c>
       <c r="F30" t="n">
-        <v>164.9904443576756</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="G30" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H30" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J30" t="n">
-        <v>157.7312169669717</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9071472688269</v>
+        <v>370.850704448048</v>
       </c>
       <c r="L30" t="n">
-        <v>573.5422963936976</v>
+        <v>813.0865958317931</v>
       </c>
       <c r="M30" t="n">
-        <v>743.6933473954177</v>
+        <v>983.2376468335133</v>
       </c>
       <c r="N30" t="n">
-        <v>1185.929238779162</v>
+        <v>1171.940518647849</v>
       </c>
       <c r="O30" t="n">
-        <v>1336.891200072138</v>
+        <v>1322.902479940825</v>
       </c>
       <c r="P30" t="n">
-        <v>1767.091010055838</v>
+        <v>1753.102289924525</v>
       </c>
       <c r="Q30" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R30" t="n">
-        <v>1768.001586040931</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S30" t="n">
-        <v>1620.321656091092</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="T30" t="n">
-        <v>1424.923762987711</v>
+        <v>1591.413789255185</v>
       </c>
       <c r="U30" t="n">
-        <v>1198.078744292907</v>
+        <v>1364.568770560381</v>
       </c>
       <c r="V30" t="n">
-        <v>963.827500818508</v>
+        <v>1323.412800384378</v>
       </c>
       <c r="W30" t="n">
-        <v>711.3130091518414</v>
+        <v>1070.898308717711</v>
       </c>
       <c r="X30" t="n">
-        <v>504.7861105574189</v>
+        <v>864.3714101232882</v>
       </c>
       <c r="Y30" t="n">
-        <v>504.7861105574189</v>
+        <v>658.6429743469387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.7362336471713</v>
+        <v>604.4930617607744</v>
       </c>
       <c r="C31" t="n">
-        <v>35.7362336471713</v>
+        <v>604.4930617607744</v>
       </c>
       <c r="D31" t="n">
-        <v>35.7362336471713</v>
+        <v>453.9823885137851</v>
       </c>
       <c r="E31" t="n">
-        <v>35.7362336471713</v>
+        <v>453.9823885137851</v>
       </c>
       <c r="F31" t="n">
-        <v>35.7362336471713</v>
+        <v>453.9823885137851</v>
       </c>
       <c r="G31" t="n">
-        <v>35.7362336471713</v>
+        <v>285.4345295204898</v>
       </c>
       <c r="H31" t="n">
-        <v>35.7362336471713</v>
+        <v>131.3928584293645</v>
       </c>
       <c r="I31" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J31" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K31" t="n">
-        <v>139.2590927728071</v>
+        <v>139.2590927728072</v>
       </c>
       <c r="L31" t="n">
         <v>327.5363259171195</v>
       </c>
       <c r="M31" t="n">
-        <v>536.6411694741445</v>
+        <v>536.6411694741446</v>
       </c>
       <c r="N31" t="n">
         <v>745.9152291185301</v>
@@ -6645,28 +6645,28 @@
         <v>1059.123207252504</v>
       </c>
       <c r="R31" t="n">
-        <v>930.6342001781993</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="S31" t="n">
-        <v>724.1130246044163</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="T31" t="n">
-        <v>497.907485104918</v>
+        <v>832.917667753006</v>
       </c>
       <c r="U31" t="n">
-        <v>209.0223933523322</v>
+        <v>832.917667753006</v>
       </c>
       <c r="V31" t="n">
-        <v>209.0223933523322</v>
+        <v>832.917667753006</v>
       </c>
       <c r="W31" t="n">
-        <v>35.7362336471713</v>
+        <v>832.917667753006</v>
       </c>
       <c r="X31" t="n">
-        <v>35.7362336471713</v>
+        <v>604.4930617607744</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.7362336471713</v>
+        <v>604.4930617607744</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1299.725686984117</v>
+        <v>1008.626347265</v>
       </c>
       <c r="C32" t="n">
-        <v>929.0336711468011</v>
+        <v>637.934331427684</v>
       </c>
       <c r="D32" t="n">
-        <v>834.1320914611393</v>
+        <v>277.7275306654634</v>
       </c>
       <c r="E32" t="n">
-        <v>447.1441765568085</v>
+        <v>277.7275306654634</v>
       </c>
       <c r="F32" t="n">
-        <v>35.7362336471713</v>
+        <v>277.7275306654634</v>
       </c>
       <c r="G32" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H32" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I32" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J32" t="n">
-        <v>227.4995846350656</v>
+        <v>53.39770965389849</v>
       </c>
       <c r="K32" t="n">
-        <v>303.4396141936242</v>
+        <v>463.0778559957283</v>
       </c>
       <c r="L32" t="n">
-        <v>433.6291537492633</v>
+        <v>905.3137473794735</v>
       </c>
       <c r="M32" t="n">
-        <v>875.8650451330082</v>
+        <v>1308.826166489437</v>
       </c>
       <c r="N32" t="n">
-        <v>1058.945792476321</v>
+        <v>1491.906913832749</v>
       </c>
       <c r="O32" t="n">
-        <v>1218.82187091757</v>
+        <v>1651.782992273999</v>
       </c>
       <c r="P32" t="n">
-        <v>1652.957879099253</v>
+        <v>1754.595050522323</v>
       </c>
       <c r="Q32" t="n">
-        <v>1784.834196621835</v>
+        <v>1784.834196621837</v>
       </c>
       <c r="R32" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S32" t="n">
-        <v>1631.577425895753</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="T32" t="n">
-        <v>1631.577425895753</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="U32" t="n">
-        <v>1631.577425895753</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="V32" t="n">
-        <v>1299.725686984117</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="W32" t="n">
-        <v>1299.725686984117</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="X32" t="n">
-        <v>1299.725686984117</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="Y32" t="n">
-        <v>1299.725686984117</v>
+        <v>1396.218680589641</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.258433382081</v>
+        <v>513.6871843635556</v>
       </c>
       <c r="C33" t="n">
-        <v>329.5053183038982</v>
+        <v>340.9340692853727</v>
       </c>
       <c r="D33" t="n">
-        <v>329.5053183038982</v>
+        <v>193.3457626443166</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8957893067529</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="F33" t="n">
-        <v>171.8957893067529</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="G33" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="H33" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="I33" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J33" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K33" t="n">
-        <v>98.557296419897</v>
+        <v>370.850704448048</v>
       </c>
       <c r="L33" t="n">
-        <v>393.8620574417778</v>
+        <v>813.0865958317931</v>
       </c>
       <c r="M33" t="n">
-        <v>564.0131084434979</v>
+        <v>983.2376468335133</v>
       </c>
       <c r="N33" t="n">
-        <v>1006.248999827243</v>
+        <v>1171.940518647849</v>
       </c>
       <c r="O33" t="n">
-        <v>1448.484891210987</v>
+        <v>1322.902479940825</v>
       </c>
       <c r="P33" t="n">
-        <v>1550.795434603008</v>
+        <v>1753.102289924525</v>
       </c>
       <c r="Q33" t="n">
-        <v>1786.811682358565</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="R33" t="n">
-        <v>1768.001586040931</v>
+        <v>1786.811682358566</v>
       </c>
       <c r="S33" t="n">
-        <v>1620.321656091092</v>
+        <v>1639.131752408728</v>
       </c>
       <c r="T33" t="n">
-        <v>1424.923762987711</v>
+        <v>1639.131752408728</v>
       </c>
       <c r="U33" t="n">
-        <v>1198.078744292907</v>
+        <v>1412.286733713925</v>
       </c>
       <c r="V33" t="n">
-        <v>963.827500818508</v>
+        <v>1178.035490239526</v>
       </c>
       <c r="W33" t="n">
-        <v>711.3130091518414</v>
+        <v>925.520998572859</v>
       </c>
       <c r="X33" t="n">
-        <v>711.3130091518414</v>
+        <v>718.9940999784365</v>
       </c>
       <c r="Y33" t="n">
-        <v>669.3009845036415</v>
+        <v>680.7297354851161</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.7362336471713</v>
+        <v>575.2073375562936</v>
       </c>
       <c r="C34" t="n">
-        <v>35.7362336471713</v>
+        <v>575.2073375562936</v>
       </c>
       <c r="D34" t="n">
-        <v>35.7362336471713</v>
+        <v>424.6966643093044</v>
       </c>
       <c r="E34" t="n">
-        <v>35.7362336471713</v>
+        <v>424.6966643093044</v>
       </c>
       <c r="F34" t="n">
-        <v>35.7362336471713</v>
+        <v>277.0612891478856</v>
       </c>
       <c r="G34" t="n">
-        <v>35.7362336471713</v>
+        <v>277.0612891478856</v>
       </c>
       <c r="H34" t="n">
-        <v>35.7362336471713</v>
+        <v>123.0196180567603</v>
       </c>
       <c r="I34" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="J34" t="n">
-        <v>35.7362336471713</v>
+        <v>35.73623364717133</v>
       </c>
       <c r="K34" t="n">
-        <v>139.2590927728071</v>
+        <v>139.2590927728072</v>
       </c>
       <c r="L34" t="n">
         <v>327.5363259171195</v>
       </c>
       <c r="M34" t="n">
-        <v>536.6411694741445</v>
+        <v>536.6411694741446</v>
       </c>
       <c r="N34" t="n">
         <v>745.9152291185301</v>
@@ -6882,28 +6882,28 @@
         <v>1059.123207252504</v>
       </c>
       <c r="R34" t="n">
-        <v>930.6342001781993</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="S34" t="n">
-        <v>724.1130246044163</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="T34" t="n">
-        <v>497.907485104918</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="U34" t="n">
-        <v>324.7186345435506</v>
+        <v>1059.123207252504</v>
       </c>
       <c r="V34" t="n">
-        <v>324.7186345435506</v>
+        <v>803.6319435485252</v>
       </c>
       <c r="W34" t="n">
-        <v>35.7362336471713</v>
+        <v>803.6319435485252</v>
       </c>
       <c r="X34" t="n">
-        <v>35.7362336471713</v>
+        <v>575.2073375562936</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.7362336471713</v>
+        <v>575.2073375562936</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>361.5965144033813</v>
+        <v>667.7983055279493</v>
       </c>
       <c r="C35" t="n">
-        <v>361.5965144033813</v>
+        <v>442.190769876615</v>
       </c>
       <c r="D35" t="n">
-        <v>361.5965144033813</v>
+        <v>442.190769876615</v>
       </c>
       <c r="E35" t="n">
-        <v>361.5965144033813</v>
+        <v>216.5832342252808</v>
       </c>
       <c r="F35" t="n">
-        <v>361.5965144033813</v>
+        <v>216.5832342252808</v>
       </c>
       <c r="G35" t="n">
-        <v>135.9889787520472</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H35" t="n">
-        <v>135.9889787520472</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I35" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J35" t="n">
-        <v>35.52959283031282</v>
+        <v>35.52959283031328</v>
       </c>
       <c r="K35" t="n">
-        <v>111.4696223888714</v>
+        <v>111.4696223888718</v>
       </c>
       <c r="L35" t="n">
-        <v>241.6591619445103</v>
+        <v>241.659161944511</v>
       </c>
       <c r="M35" t="n">
-        <v>417.397811046883</v>
+        <v>417.3978110468837</v>
       </c>
       <c r="N35" t="n">
-        <v>600.4785583901953</v>
+        <v>600.478558390196</v>
       </c>
       <c r="O35" t="n">
-        <v>760.354636831445</v>
+        <v>760.3546368314456</v>
       </c>
       <c r="P35" t="n">
-        <v>863.1666950797693</v>
+        <v>863.16669507977</v>
       </c>
       <c r="Q35" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R35" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S35" t="n">
-        <v>738.1715847164708</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T35" t="n">
-        <v>738.1715847164708</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="U35" t="n">
-        <v>738.1715847164708</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="V35" t="n">
-        <v>512.5640490651367</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="W35" t="n">
-        <v>512.5640490651367</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="X35" t="n">
-        <v>512.5640490651367</v>
+        <v>667.7983055279493</v>
       </c>
       <c r="Y35" t="n">
-        <v>512.5640490651367</v>
+        <v>667.7983055279493</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.86811682358566</v>
+        <v>459.2255081213687</v>
       </c>
       <c r="C36" t="n">
-        <v>17.86811682358566</v>
+        <v>459.2255081213687</v>
       </c>
       <c r="D36" t="n">
-        <v>17.86811682358566</v>
+        <v>311.6372014803126</v>
       </c>
       <c r="E36" t="n">
-        <v>17.86811682358566</v>
+        <v>154.0276724831673</v>
       </c>
       <c r="F36" t="n">
-        <v>17.86811682358566</v>
+        <v>154.0276724831673</v>
       </c>
       <c r="G36" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H36" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I36" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J36" t="n">
-        <v>69.10252947790791</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.9235922506336</v>
+        <v>131.9235922506343</v>
       </c>
       <c r="L36" t="n">
-        <v>261.5587413755044</v>
+        <v>261.5587413755051</v>
       </c>
       <c r="M36" t="n">
-        <v>431.7097923772245</v>
+        <v>431.7097923772252</v>
       </c>
       <c r="N36" t="n">
-        <v>620.41266419156</v>
+        <v>620.4126641915607</v>
       </c>
       <c r="O36" t="n">
-        <v>771.3746254845358</v>
+        <v>771.3746254845365</v>
       </c>
       <c r="P36" t="n">
-        <v>873.6851688765564</v>
+        <v>873.6851688765571</v>
       </c>
       <c r="Q36" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R36" t="n">
-        <v>874.5957448616485</v>
+        <v>874.5957448616492</v>
       </c>
       <c r="S36" t="n">
-        <v>726.9158149118103</v>
+        <v>874.5957448616492</v>
       </c>
       <c r="T36" t="n">
-        <v>675.6100867206763</v>
+        <v>874.5957448616492</v>
       </c>
       <c r="U36" t="n">
-        <v>450.0025510693422</v>
+        <v>874.5957448616492</v>
       </c>
       <c r="V36" t="n">
-        <v>450.0025510693422</v>
+        <v>874.5957448616492</v>
       </c>
       <c r="W36" t="n">
-        <v>224.3950154180082</v>
+        <v>665.7524067157913</v>
       </c>
       <c r="X36" t="n">
-        <v>17.86811682358566</v>
+        <v>459.2255081213687</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.86811682358566</v>
+        <v>459.2255081213687</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="C37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="D37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="E37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="F37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="G37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="K37" t="n">
         <v>121.3909759492215</v>
       </c>
       <c r="L37" t="n">
-        <v>161.8189598438981</v>
+        <v>309.6682090935339</v>
       </c>
       <c r="M37" t="n">
-        <v>370.9238034009231</v>
+        <v>518.773052650559</v>
       </c>
       <c r="N37" t="n">
-        <v>580.1978630453086</v>
+        <v>728.0471122949446</v>
       </c>
       <c r="O37" t="n">
-        <v>758.1597325595599</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="P37" t="n">
-        <v>887.2143743976804</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="Q37" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R37" t="n">
-        <v>764.9168341049781</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S37" t="n">
-        <v>558.3956585311951</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T37" t="n">
-        <v>332.788122879861</v>
+        <v>667.7983055279493</v>
       </c>
       <c r="U37" t="n">
-        <v>332.788122879861</v>
+        <v>442.190769876615</v>
       </c>
       <c r="V37" t="n">
-        <v>107.1805872285269</v>
+        <v>216.5832342252808</v>
       </c>
       <c r="W37" t="n">
-        <v>107.1805872285269</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="X37" t="n">
-        <v>107.1805872285269</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>667.7983055279489</v>
+        <v>243.4756524749199</v>
       </c>
       <c r="C38" t="n">
-        <v>469.0831881262538</v>
+        <v>243.4756524749199</v>
       </c>
       <c r="D38" t="n">
-        <v>469.0831881262538</v>
+        <v>243.4756524749199</v>
       </c>
       <c r="E38" t="n">
-        <v>243.4756524749197</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="F38" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="G38" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H38" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I38" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J38" t="n">
-        <v>35.52959283031282</v>
+        <v>35.52959283031284</v>
       </c>
       <c r="K38" t="n">
         <v>111.4696223888714</v>
@@ -7192,34 +7192,34 @@
         <v>760.3546368314452</v>
       </c>
       <c r="P38" t="n">
-        <v>863.1666950797693</v>
+        <v>863.1666950797695</v>
       </c>
       <c r="Q38" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792831</v>
       </c>
       <c r="R38" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S38" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T38" t="n">
-        <v>893.4058411792829</v>
+        <v>678.3142179792997</v>
       </c>
       <c r="U38" t="n">
-        <v>893.4058411792829</v>
+        <v>678.3142179792997</v>
       </c>
       <c r="V38" t="n">
-        <v>893.4058411792829</v>
+        <v>678.3142179792997</v>
       </c>
       <c r="W38" t="n">
-        <v>893.4058411792829</v>
+        <v>678.3142179792997</v>
       </c>
       <c r="X38" t="n">
-        <v>667.7983055279489</v>
+        <v>678.3142179792997</v>
       </c>
       <c r="Y38" t="n">
-        <v>667.7983055279489</v>
+        <v>469.0831881262542</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>380.3430798728519</v>
+        <v>175.477645820731</v>
       </c>
       <c r="C39" t="n">
-        <v>207.5899647946691</v>
+        <v>175.477645820731</v>
       </c>
       <c r="D39" t="n">
-        <v>207.5899647946691</v>
+        <v>175.477645820731</v>
       </c>
       <c r="E39" t="n">
-        <v>207.5899647946691</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="F39" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="G39" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H39" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I39" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J39" t="n">
-        <v>17.86811682358566</v>
+        <v>69.10252947790859</v>
       </c>
       <c r="K39" t="n">
-        <v>131.9235922506336</v>
+        <v>131.9235922506343</v>
       </c>
       <c r="L39" t="n">
-        <v>261.5587413755044</v>
+        <v>261.5587413755051</v>
       </c>
       <c r="M39" t="n">
-        <v>431.7097923772245</v>
+        <v>431.7097923772252</v>
       </c>
       <c r="N39" t="n">
-        <v>620.41266419156</v>
+        <v>620.4126641915607</v>
       </c>
       <c r="O39" t="n">
-        <v>771.3746254845358</v>
+        <v>771.3746254845365</v>
       </c>
       <c r="P39" t="n">
-        <v>873.6851688765564</v>
+        <v>873.6851688765571</v>
       </c>
       <c r="Q39" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R39" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S39" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T39" t="n">
-        <v>698.0079480759013</v>
+        <v>813.3405158428372</v>
       </c>
       <c r="U39" t="n">
-        <v>698.0079480759013</v>
+        <v>813.3405158428372</v>
       </c>
       <c r="V39" t="n">
-        <v>698.0079480759013</v>
+        <v>587.732980191503</v>
       </c>
       <c r="W39" t="n">
-        <v>472.4004124245672</v>
+        <v>587.732980191503</v>
       </c>
       <c r="X39" t="n">
-        <v>380.3430798728519</v>
+        <v>381.2060815970805</v>
       </c>
       <c r="Y39" t="n">
-        <v>380.3430798728519</v>
+        <v>175.477645820731</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.86811682358566</v>
+        <v>334.8751921534458</v>
       </c>
       <c r="C40" t="n">
-        <v>17.86811682358566</v>
+        <v>334.8751921534458</v>
       </c>
       <c r="D40" t="n">
-        <v>17.86811682358566</v>
+        <v>334.8751921534458</v>
       </c>
       <c r="E40" t="n">
-        <v>17.86811682358566</v>
+        <v>186.415975816881</v>
       </c>
       <c r="F40" t="n">
-        <v>17.86811682358566</v>
+        <v>186.415975816881</v>
       </c>
       <c r="G40" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H40" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I40" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J40" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="K40" t="n">
-        <v>121.3909759492215</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="L40" t="n">
-        <v>161.8189598438981</v>
+        <v>168.0104266255012</v>
       </c>
       <c r="M40" t="n">
-        <v>370.9238034009231</v>
+        <v>377.1152701825262</v>
       </c>
       <c r="N40" t="n">
-        <v>580.1978630453086</v>
+        <v>586.3893298269118</v>
       </c>
       <c r="O40" t="n">
-        <v>758.1597325595599</v>
+        <v>764.351199341163</v>
       </c>
       <c r="P40" t="n">
-        <v>887.2143743976804</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="Q40" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R40" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S40" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T40" t="n">
-        <v>893.4058411792829</v>
+        <v>742.3854464822385</v>
       </c>
       <c r="U40" t="n">
-        <v>667.7983055279489</v>
+        <v>742.3854464822385</v>
       </c>
       <c r="V40" t="n">
-        <v>442.1907698766148</v>
+        <v>742.3854464822385</v>
       </c>
       <c r="W40" t="n">
-        <v>216.5832342252807</v>
+        <v>742.3854464822385</v>
       </c>
       <c r="X40" t="n">
-        <v>216.5832342252807</v>
+        <v>516.7779108309043</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.86811682358566</v>
+        <v>516.7779108309043</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>667.7983055279489</v>
+        <v>361.5965144033814</v>
       </c>
       <c r="C41" t="n">
-        <v>587.2040500547154</v>
+        <v>361.5965144033814</v>
       </c>
       <c r="D41" t="n">
-        <v>361.5965144033813</v>
+        <v>361.5965144033814</v>
       </c>
       <c r="E41" t="n">
         <v>135.9889787520472</v>
@@ -7408,55 +7408,55 @@
         <v>135.9889787520472</v>
       </c>
       <c r="I41" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J41" t="n">
-        <v>35.52959283031282</v>
+        <v>35.52959283031305</v>
       </c>
       <c r="K41" t="n">
-        <v>111.4696223888714</v>
+        <v>111.4696223888718</v>
       </c>
       <c r="L41" t="n">
-        <v>241.6591619445105</v>
+        <v>241.6591619445112</v>
       </c>
       <c r="M41" t="n">
-        <v>417.3978110468832</v>
+        <v>417.3978110468839</v>
       </c>
       <c r="N41" t="n">
-        <v>600.4785583901955</v>
+        <v>600.4785583901962</v>
       </c>
       <c r="O41" t="n">
-        <v>760.3546368314452</v>
+        <v>760.3546368314458</v>
       </c>
       <c r="P41" t="n">
-        <v>863.1666950797693</v>
+        <v>863.16669507977</v>
       </c>
       <c r="Q41" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R41" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S41" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164714</v>
       </c>
       <c r="T41" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164714</v>
       </c>
       <c r="U41" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164714</v>
       </c>
       <c r="V41" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164714</v>
       </c>
       <c r="W41" t="n">
-        <v>667.7983055279489</v>
+        <v>738.1715847164714</v>
       </c>
       <c r="X41" t="n">
-        <v>667.7983055279489</v>
+        <v>512.5640490651372</v>
       </c>
       <c r="Y41" t="n">
-        <v>667.7983055279489</v>
+        <v>512.5640490651372</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>343.7495204542506</v>
+        <v>235.6638712821925</v>
       </c>
       <c r="C42" t="n">
-        <v>343.7495204542506</v>
+        <v>235.6638712821925</v>
       </c>
       <c r="D42" t="n">
-        <v>343.7495204542506</v>
+        <v>235.6638712821925</v>
       </c>
       <c r="E42" t="n">
-        <v>343.7495204542506</v>
+        <v>162.8239068069688</v>
       </c>
       <c r="F42" t="n">
-        <v>198.7937304708675</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="G42" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H42" t="n">
-        <v>62.63417481128592</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I42" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J42" t="n">
-        <v>17.86811682358566</v>
+        <v>69.10252947790859</v>
       </c>
       <c r="K42" t="n">
-        <v>80.68917959631136</v>
+        <v>131.9235922506343</v>
       </c>
       <c r="L42" t="n">
-        <v>210.3243287211821</v>
+        <v>261.5587413755051</v>
       </c>
       <c r="M42" t="n">
-        <v>380.4753797229023</v>
+        <v>431.7097923772252</v>
       </c>
       <c r="N42" t="n">
-        <v>569.1782515372378</v>
+        <v>620.4126641915607</v>
       </c>
       <c r="O42" t="n">
-        <v>720.1402128302136</v>
+        <v>771.3746254845365</v>
       </c>
       <c r="P42" t="n">
-        <v>822.4507562222342</v>
+        <v>873.6851688765571</v>
       </c>
       <c r="Q42" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R42" t="n">
-        <v>874.5957448616485</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S42" t="n">
-        <v>726.9158149118103</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T42" t="n">
-        <v>726.9158149118103</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="U42" t="n">
-        <v>726.9158149118103</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="V42" t="n">
-        <v>726.9158149118103</v>
+        <v>667.7983055279493</v>
       </c>
       <c r="W42" t="n">
-        <v>726.9158149118103</v>
+        <v>442.190769876615</v>
       </c>
       <c r="X42" t="n">
-        <v>520.3889163173878</v>
+        <v>235.6638712821925</v>
       </c>
       <c r="Y42" t="n">
-        <v>343.7495204542506</v>
+        <v>235.6638712821925</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>442.1907698766148</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="C43" t="n">
-        <v>442.1907698766148</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="D43" t="n">
-        <v>291.6800966296256</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="E43" t="n">
-        <v>291.6800966296256</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="F43" t="n">
-        <v>186.415975816881</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="G43" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="H43" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="I43" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="J43" t="n">
-        <v>17.86811682358566</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="K43" t="n">
-        <v>121.3909759492215</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="L43" t="n">
-        <v>309.6682090935338</v>
+        <v>168.0104266255012</v>
       </c>
       <c r="M43" t="n">
-        <v>506.1699120206461</v>
+        <v>377.1152701825262</v>
       </c>
       <c r="N43" t="n">
-        <v>715.4439716650317</v>
+        <v>586.3893298269118</v>
       </c>
       <c r="O43" t="n">
-        <v>893.4058411792829</v>
+        <v>764.351199341163</v>
       </c>
       <c r="P43" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="Q43" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="R43" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="S43" t="n">
-        <v>893.4058411792829</v>
+        <v>893.4058411792836</v>
       </c>
       <c r="T43" t="n">
-        <v>893.4058411792829</v>
+        <v>667.7983055279493</v>
       </c>
       <c r="U43" t="n">
-        <v>667.7983055279489</v>
+        <v>442.190769876615</v>
       </c>
       <c r="V43" t="n">
-        <v>442.1907698766148</v>
+        <v>243.4756524749199</v>
       </c>
       <c r="W43" t="n">
-        <v>442.1907698766148</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="X43" t="n">
-        <v>442.1907698766148</v>
+        <v>17.86811682358567</v>
       </c>
       <c r="Y43" t="n">
-        <v>442.1907698766148</v>
+        <v>17.86811682358567</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>216.5832342252807</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="C44" t="n">
         <v>17.86811682358566</v>
@@ -7675,25 +7675,25 @@
         <v>893.4058411792829</v>
       </c>
       <c r="S44" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164708</v>
       </c>
       <c r="T44" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164708</v>
       </c>
       <c r="U44" t="n">
-        <v>893.4058411792829</v>
+        <v>738.1715847164708</v>
       </c>
       <c r="V44" t="n">
-        <v>893.4058411792829</v>
+        <v>512.5640490651367</v>
       </c>
       <c r="W44" t="n">
-        <v>667.7983055279489</v>
+        <v>469.0831881262538</v>
       </c>
       <c r="X44" t="n">
-        <v>667.7983055279489</v>
+        <v>469.0831881262538</v>
       </c>
       <c r="Y44" t="n">
-        <v>442.1907698766148</v>
+        <v>243.4756524749197</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>726.3632900577225</v>
+        <v>29.93543550584278</v>
       </c>
       <c r="C45" t="n">
-        <v>553.6101749795396</v>
+        <v>29.93543550584278</v>
       </c>
       <c r="D45" t="n">
-        <v>553.6101749795396</v>
+        <v>29.93543550584278</v>
       </c>
       <c r="E45" t="n">
-        <v>396.0006459823943</v>
+        <v>29.93543550584278</v>
       </c>
       <c r="F45" t="n">
-        <v>253.653105826769</v>
+        <v>29.93543550584278</v>
       </c>
       <c r="G45" t="n">
-        <v>117.4935501671874</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="H45" t="n">
         <v>17.86811682358566</v>
@@ -7760,19 +7760,19 @@
         <v>893.4058411792829</v>
       </c>
       <c r="U45" t="n">
-        <v>893.4058411792829</v>
+        <v>667.7983055279489</v>
       </c>
       <c r="V45" t="n">
-        <v>893.4058411792829</v>
+        <v>442.1907698766148</v>
       </c>
       <c r="W45" t="n">
-        <v>893.4058411792829</v>
+        <v>442.1907698766148</v>
       </c>
       <c r="X45" t="n">
-        <v>893.4058411792829</v>
+        <v>235.6638712821923</v>
       </c>
       <c r="Y45" t="n">
-        <v>893.4058411792829</v>
+        <v>29.93543550584278</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.976788460313</v>
+        <v>484.5620242252889</v>
       </c>
       <c r="C46" t="n">
-        <v>141.976788460313</v>
+        <v>484.5620242252889</v>
       </c>
       <c r="D46" t="n">
-        <v>141.976788460313</v>
+        <v>334.0513509782996</v>
       </c>
       <c r="E46" t="n">
-        <v>141.976788460313</v>
+        <v>334.0513509782996</v>
       </c>
       <c r="F46" t="n">
-        <v>141.976788460313</v>
+        <v>186.415975816881</v>
       </c>
       <c r="G46" t="n">
-        <v>141.976788460313</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="H46" t="n">
-        <v>141.976788460313</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="I46" t="n">
         <v>17.86811682358566</v>
@@ -7809,22 +7809,22 @@
         <v>17.86811682358566</v>
       </c>
       <c r="K46" t="n">
-        <v>121.3909759492215</v>
+        <v>17.86811682358566</v>
       </c>
       <c r="L46" t="n">
-        <v>309.6682090935338</v>
+        <v>206.1453499678981</v>
       </c>
       <c r="M46" t="n">
-        <v>518.7730526505588</v>
+        <v>377.1152701825255</v>
       </c>
       <c r="N46" t="n">
-        <v>728.0471122949443</v>
+        <v>586.3893298269111</v>
       </c>
       <c r="O46" t="n">
-        <v>758.1597325595599</v>
+        <v>764.3511993411623</v>
       </c>
       <c r="P46" t="n">
-        <v>887.2143743976804</v>
+        <v>893.4058411792829</v>
       </c>
       <c r="Q46" t="n">
         <v>893.4058411792829</v>
@@ -7836,22 +7836,22 @@
         <v>764.9168341049781</v>
       </c>
       <c r="T46" t="n">
+        <v>764.9168341049781</v>
+      </c>
+      <c r="U46" t="n">
+        <v>764.9168341049781</v>
+      </c>
+      <c r="V46" t="n">
+        <v>764.9168341049781</v>
+      </c>
+      <c r="W46" t="n">
         <v>539.309298453644</v>
       </c>
-      <c r="U46" t="n">
-        <v>313.70176280231</v>
-      </c>
-      <c r="V46" t="n">
-        <v>313.70176280231</v>
-      </c>
-      <c r="W46" t="n">
-        <v>313.70176280231</v>
-      </c>
       <c r="X46" t="n">
-        <v>141.976788460313</v>
+        <v>484.5620242252889</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.976788460313</v>
+        <v>484.5620242252889</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>66.34761632777085</v>
+        <v>66.34761632777088</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>7.907420875438959</v>
+        <v>7.907420875438973</v>
       </c>
       <c r="K12" t="n">
-        <v>51.75193197406266</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75193197406298</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0135169984386</v>
+        <v>6.44497242708934</v>
       </c>
       <c r="L13" t="n">
-        <v>19.63101359348322</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M13" t="n">
         <v>185.6500473458235</v>
@@ -8865,10 +8865,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>101.8867012583224</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275809</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>7.907420875438959</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>51.75193197406266</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>51.75193197406273</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>178.6904255182403</v>
       </c>
       <c r="O16" t="n">
-        <v>20.22065701078464</v>
+        <v>26.47466386088814</v>
       </c>
       <c r="P16" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>7.907420875438959</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>51.75193197406266</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>19.00943310786369</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>32.74249886619896</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>6.444972427089311</v>
       </c>
       <c r="L19" t="n">
-        <v>124.1995581648326</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M19" t="n">
         <v>185.6500473458235</v>
@@ -9339,10 +9339,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P19" t="n">
-        <v>140.4068258466027</v>
+        <v>101.8867012583222</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M22" t="n">
-        <v>140.8759159074394</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N22" t="n">
         <v>178.6904255182403</v>
@@ -9576,10 +9576,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P22" t="n">
-        <v>140.4068258466027</v>
+        <v>101.8867012583222</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>269.1891336175476</v>
+        <v>269.189133617548</v>
       </c>
       <c r="N23" t="n">
-        <v>261.7728727681136</v>
+        <v>109.1728835842341</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>285.211932265147</v>
       </c>
       <c r="P23" t="n">
-        <v>14.31084395342516</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
-        <v>68.34507666790174</v>
+        <v>66.34761632777085</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>115.5860968426563</v>
+        <v>7.907420875438959</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>315.7583255140142</v>
+        <v>315.7583255140146</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.8331721030556</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>294.2160910007767</v>
+        <v>294.2160910007771</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>51.32588310944601</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>77.18902032934523</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>177.5590535886105</v>
+        <v>315.1983351799051</v>
       </c>
       <c r="M26" t="n">
-        <v>269.1891336175476</v>
+        <v>269.189133617548</v>
       </c>
       <c r="N26" t="n">
-        <v>261.7728727681137</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>66.34761632777085</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,22 +9959,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>315.7583255140146</v>
       </c>
       <c r="M27" t="n">
-        <v>274.8331721030552</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>256.0939591610195</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>14.13002033466185</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.1624939701348</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>177.5590535886112</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>269.189133617548</v>
       </c>
       <c r="N29" t="n">
-        <v>261.7728727681136</v>
+        <v>261.772872768114</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.0800703676852</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.34507666790174</v>
+        <v>66.34761632777085</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>7.907420875438959</v>
       </c>
       <c r="K30" t="n">
-        <v>225.610977302151</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>315.7583255140146</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>256.0939591610195</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14.13002033466189</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>315.1983351799051</v>
       </c>
       <c r="M32" t="n">
-        <v>269.1891336175476</v>
+        <v>230.0745151591827</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.6638095182511</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10430,25 +10430,25 @@
         <v>7.907420875438959</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>167.3430423202121</v>
+        <v>315.7583255140146</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>256.0939591610195</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>294.2160910007767</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>14.13002033466189</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>59.65935284950184</v>
+        <v>7.907420875438959</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>51.75193197406355</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L37" t="n">
-        <v>19.63101359348345</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M37" t="n">
         <v>185.6500473458235</v>
@@ -10758,13 +10758,13 @@
         <v>178.6904255182403</v>
       </c>
       <c r="O37" t="n">
-        <v>169.5633330205178</v>
+        <v>156.8328879397984</v>
       </c>
       <c r="P37" t="n">
-        <v>140.4068258466027</v>
+        <v>10.04860176769309</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>7.907420875438959</v>
+        <v>59.65935284950251</v>
       </c>
       <c r="K39" t="n">
-        <v>51.75193197406287</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10983,10 +10983,10 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>6.444972427089311</v>
       </c>
       <c r="L40" t="n">
-        <v>19.63101359348345</v>
+        <v>130.4535650149369</v>
       </c>
       <c r="M40" t="n">
         <v>185.6500473458235</v>
@@ -11001,7 +11001,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>7.907420875438959</v>
+        <v>59.65935284950251</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.75193197406284</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11220,13 +11220,13 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>6.444972427089311</v>
       </c>
       <c r="L43" t="n">
-        <v>168.9736896032166</v>
+        <v>130.4535650149369</v>
       </c>
       <c r="M43" t="n">
-        <v>172.9196022651035</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N43" t="n">
         <v>178.6904255182403</v>
@@ -11235,7 +11235,7 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P43" t="n">
-        <v>10.04860176769309</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q43" t="n">
         <v>61.70266986275807</v>
@@ -11457,25 +11457,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0135169984386</v>
+        <v>6.444972427089311</v>
       </c>
       <c r="L46" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>185.6500473458235</v>
+        <v>147.1299227575431</v>
       </c>
       <c r="N46" t="n">
         <v>178.6904255182403</v>
       </c>
       <c r="O46" t="n">
-        <v>20.22065701078476</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>61.70266986275807</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.3649496965744</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>287.1967827604416</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>412.5647802003047</v>
+        <v>189.213319905484</v>
       </c>
       <c r="H11" t="n">
         <v>314.6915924225398</v>
       </c>
       <c r="I11" t="n">
-        <v>116.9396533091769</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>212.9407069679841</v>
       </c>
       <c r="U11" t="n">
-        <v>54.56659853258438</v>
+        <v>251.2945647602623</v>
       </c>
       <c r="V11" t="n">
         <v>105.1817612276987</v>
       </c>
       <c r="W11" t="n">
-        <v>127.1786567057339</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>147.5101388363487</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>62.2463418444202</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -23357,7 +23357,7 @@
         <v>98.62917901016567</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T12" t="n">
         <v>193.4439141723478</v>
@@ -23405,7 +23405,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>52.03370116494514</v>
       </c>
     </row>
     <row r="13">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>112.338366744859</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>122.8675849203601</v>
       </c>
       <c r="J13" t="n">
-        <v>16.21520208685767</v>
+        <v>16.21520208685769</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>285.9962408350599</v>
       </c>
       <c r="V13" t="n">
-        <v>29.58489077211848</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23484,7 +23484,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>145.9543229646527</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>133.2532724597777</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>159.7665754604668</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.9407069679841</v>
       </c>
       <c r="U14" t="n">
         <v>251.2945647602623</v>
       </c>
       <c r="V14" t="n">
-        <v>275.0764158661887</v>
+        <v>105.1817612276986</v>
       </c>
       <c r="W14" t="n">
-        <v>127.1786567057339</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>147.5101388363487</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>189.9591055235578</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>134.7979601029858</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>111.9833445175804</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>224.5765685078554</v>
+        <v>137.315030177385</v>
       </c>
       <c r="V15" t="n">
-        <v>8.557270744834426</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
@@ -23655,10 +23655,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>48.76394730343706</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
@@ -23670,7 +23670,7 @@
         <v>166.8623804033624</v>
       </c>
       <c r="H16" t="n">
-        <v>152.5012543802141</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>122.8675849203601</v>
@@ -23703,22 +23703,22 @@
         <v>127.2041170035618</v>
       </c>
       <c r="S16" t="n">
-        <v>7.727997590367067</v>
+        <v>204.4559638180451</v>
       </c>
       <c r="T16" t="n">
-        <v>223.9434841045033</v>
+        <v>0.5920238096825869</v>
       </c>
       <c r="U16" t="n">
-        <v>62.6447805402392</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V16" t="n">
-        <v>29.58489077211846</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>62.74111659259484</v>
       </c>
       <c r="X16" t="n">
-        <v>2.788899637488555</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23734,7 +23734,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6336353841219</v>
+        <v>313.5282900226121</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23746,7 +23746,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>205.42606064579</v>
+        <v>412.5647802003047</v>
       </c>
       <c r="H17" t="n">
         <v>314.6915924225398</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>147.5101388363487</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23816,7 +23816,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>126.6309050879418</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>134.7979601029858</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.62917901016567</v>
       </c>
       <c r="I18" t="n">
         <v>44.31839740782326</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T18" t="n">
-        <v>193.4439141723478</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.5765685078554</v>
+        <v>1.22510821303473</v>
       </c>
       <c r="V18" t="n">
-        <v>8.557270744834426</v>
+        <v>142.4168217103357</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5920238096825869</v>
+        <v>0.5920238096826154</v>
       </c>
       <c r="U19" t="n">
-        <v>197.5768951341682</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V19" t="n">
-        <v>29.58489077211846</v>
+        <v>29.58489077211848</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>10.51689722785568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>160.3649496965744</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>133.2532724597777</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>329.6612300989569</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9407069679841</v>
       </c>
       <c r="U20" t="n">
-        <v>27.94310446544165</v>
+        <v>251.2945647602623</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>131.8052552948414</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>127.1786567057339</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>163.3356114564151</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>90.59320222758997</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>93.74590708167213</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>134.7979601029858</v>
@@ -24068,7 +24068,7 @@
         <v>98.62917901016567</v>
       </c>
       <c r="I21" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>18.62199535445797</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U21" t="n">
-        <v>1.22510821303473</v>
+        <v>224.5765685078554</v>
       </c>
       <c r="V21" t="n">
-        <v>8.557270744834454</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>26.63788645517937</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24138,16 +24138,16 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5012543802141</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.8675849203601</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>16.21520208685767</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>204.4559638180451</v>
       </c>
       <c r="T22" t="n">
-        <v>223.9434841045033</v>
+        <v>0.5920238096826154</v>
       </c>
       <c r="U22" t="n">
-        <v>285.9962408350599</v>
+        <v>230.9555951314816</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>62.74111659259486</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>81.70610686779921</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>110.9587329524453</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -24226,7 +24226,7 @@
         <v>314.6915924225398</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>116.9396533091769</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.9407069679841</v>
       </c>
       <c r="U23" t="n">
         <v>251.2945647602623</v>
       </c>
       <c r="V23" t="n">
-        <v>219.795882347385</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -24305,7 +24305,7 @@
         <v>98.62917901016567</v>
       </c>
       <c r="I24" t="n">
-        <v>44.31839740782326</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>63.9954044033765</v>
       </c>
       <c r="T24" t="n">
-        <v>56.44978077948738</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>152.5012543802141</v>
@@ -24417,10 +24417,10 @@
         <v>204.4559638180451</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>86.92964521728194</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24432,7 +24432,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.8319888290292</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -24454,7 +24454,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>412.5647802003047</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2945647602623</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>282.9731178281245</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.866648156446729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>134.7979601029858</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>16.45867865149864</v>
       </c>
       <c r="U27" t="n">
-        <v>166.3302530221352</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S28" t="n">
         <v>204.4559638180451</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9434841045033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.1654399289001</v>
+        <v>9.019557890008514</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>83.00039168728148</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24694,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>156.8054487193545</v>
       </c>
       <c r="H29" t="n">
         <v>314.6915924225398</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>116.9396533091769</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.836291499586537</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H30" t="n">
         <v>98.62917901016567</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>191.1643205654113</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -24852,13 +24852,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.5012543802141</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>122.8675849203601</v>
+        <v>28.16752638598891</v>
       </c>
       <c r="J31" t="n">
         <v>16.21520208685767</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>204.4559638180451</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>114.5392787793062</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>262.6521688657932</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>412.5647802003047</v>
+        <v>172.9933961521955</v>
       </c>
       <c r="H32" t="n">
         <v>314.6915924225398</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T32" t="n">
         <v>212.9407069679841</v>
@@ -24976,7 +24976,7 @@
         <v>251.2945647602623</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H33" t="n">
         <v>98.62917901016567</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.0792470168682</v>
+        <v>165.7894305701988</v>
       </c>
     </row>
     <row r="34">
@@ -25080,22 +25080,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.8623804033624</v>
       </c>
       <c r="H34" t="n">
-        <v>152.5012543802141</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.8675849203601</v>
+        <v>36.45703435486705</v>
       </c>
       <c r="J34" t="n">
         <v>16.21520208685767</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>204.4559638180451</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9434841045033</v>
       </c>
       <c r="U34" t="n">
-        <v>114.5392787793062</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.2585506762572</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>143.6336353841217</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>159.7665754604666</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>189.2133199054839</v>
+        <v>215.8368139726265</v>
       </c>
       <c r="H35" t="n">
         <v>314.6915924225398</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>116.9396533091769</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>153.681913898184</v>
       </c>
       <c r="T35" t="n">
         <v>212.9407069679841</v>
@@ -25213,13 +25213,13 @@
         <v>251.2945647602623</v>
       </c>
       <c r="V35" t="n">
-        <v>105.1817612276986</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>147.5101388363485</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25238,16 +25238,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>134.7979601029858</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>98.62917901016567</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T36" t="n">
-        <v>142.6512432631251</v>
+        <v>193.4439141723478</v>
       </c>
       <c r="U36" t="n">
-        <v>1.225108213034673</v>
+        <v>224.5765685078554</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>26.63788645517931</v>
+        <v>43.23444198560068</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>127.2041170035618</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>204.4559638180451</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5920238096825585</v>
+        <v>0.592023809682388</v>
       </c>
       <c r="U37" t="n">
-        <v>285.9962408350599</v>
+        <v>62.644780540239</v>
       </c>
       <c r="V37" t="n">
-        <v>29.58489077211843</v>
+        <v>29.58489077211826</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>89.36461065973737</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3293281668763</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>160.3649496965741</v>
       </c>
       <c r="C38" t="n">
-        <v>170.2571294512646</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>159.7665754604667</v>
+        <v>159.7665754604666</v>
       </c>
       <c r="F38" t="n">
-        <v>183.9424031857201</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>412.5647802003047</v>
@@ -25444,7 +25444,7 @@
         <v>153.681913898184</v>
       </c>
       <c r="T38" t="n">
-        <v>212.9407069679841</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2945647602623</v>
@@ -25456,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>147.5101388363487</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>179.5483521967208</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>134.7979601029858</v>
@@ -25490,7 +25490,7 @@
         <v>98.62917901016567</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>146.2031306503398</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>114.1792420892659</v>
       </c>
       <c r="U39" t="n">
         <v>224.5765685078554</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.557270744834227</v>
       </c>
       <c r="W39" t="n">
-        <v>26.63788645517931</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>113.3248703822801</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25557,13 +25557,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.5012543802141</v>
@@ -25602,22 +25602,22 @@
         <v>204.4559638180451</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9434841045033</v>
+        <v>74.43329335442868</v>
       </c>
       <c r="U40" t="n">
-        <v>62.64478054023917</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V40" t="n">
-        <v>29.58489077211843</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>62.74111659259481</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>2.788899637488356</v>
       </c>
       <c r="Y40" t="n">
-        <v>22.02070764009011</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>234.2585506762569</v>
       </c>
       <c r="C41" t="n">
-        <v>287.1967827604415</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>133.2532724597777</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>159.7665754604667</v>
+        <v>159.7665754604666</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.9407069679841</v>
@@ -25690,10 +25690,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>127.1786567057339</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>147.5101388363485</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25715,19 +25715,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>83.92186887670235</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>134.7979601029858</v>
       </c>
       <c r="H42" t="n">
         <v>98.62917901016567</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>44.31839740782326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>18.62199535445797</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>146.2031306503398</v>
       </c>
       <c r="T42" t="n">
         <v>193.4439141723478</v>
@@ -25766,16 +25766,16 @@
         <v>224.5765685078554</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>8.557270744834227</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>26.63788645517914</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.79814951408019</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25791,16 +25791,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>41.94754180518737</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.8623804033624</v>
       </c>
       <c r="H43" t="n">
         <v>152.5012543802141</v>
@@ -25839,16 +25839,16 @@
         <v>204.4559638180451</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9434841045033</v>
+        <v>0.592023809682388</v>
       </c>
       <c r="U43" t="n">
-        <v>62.64478054023917</v>
+        <v>62.644780540239</v>
       </c>
       <c r="V43" t="n">
-        <v>29.58489077211843</v>
+        <v>56.20838483926099</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>62.74111659259464</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25867,7 +25867,7 @@
         <v>160.3649496965743</v>
       </c>
       <c r="C44" t="n">
-        <v>170.2571294512645</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>153.681913898184</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.9407069679841</v>
@@ -25924,10 +25924,10 @@
         <v>251.2945647602623</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>105.1817612276986</v>
       </c>
       <c r="W44" t="n">
-        <v>127.1786567057339</v>
+        <v>307.4840646710605</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>2.5821673294802</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.8513146075512</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.62917901016567</v>
       </c>
       <c r="I45" t="n">
         <v>44.31839740782326</v>
@@ -26000,19 +26000,19 @@
         <v>193.4439141723478</v>
       </c>
       <c r="U45" t="n">
-        <v>224.5765685078554</v>
+        <v>1.225108213034673</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>8.557270744834398</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,22 +26028,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8623804033624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>152.5012543802141</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.8675849203601</v>
       </c>
       <c r="J46" t="n">
         <v>16.21520208685767</v>
@@ -26076,19 +26076,19 @@
         <v>204.4559638180451</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5920238096825585</v>
+        <v>223.9434841045033</v>
       </c>
       <c r="U46" t="n">
-        <v>62.64478054023917</v>
+        <v>285.9962408350599</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>62.74111659259481</v>
       </c>
       <c r="X46" t="n">
-        <v>56.13263533373228</v>
+        <v>171.9405584462377</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409220.672418676</v>
+        <v>409220.6724186759</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568535.5429836719</v>
+        <v>568535.5429836721</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>568535.5429836719</v>
+        <v>568535.5429836721</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568535.5429836719</v>
+        <v>568535.5429836723</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568535.5429836719</v>
+        <v>568535.5429836722</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409220.6724186759</v>
+        <v>409220.6724186761</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>409220.6724186759</v>
+        <v>409220.6724186761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>409220.6724186759</v>
+        <v>409220.672418676</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>568509.4644290183</v>
       </c>
       <c r="C2" t="n">
+        <v>568509.4644290182</v>
+      </c>
+      <c r="D2" t="n">
         <v>568509.4644290184</v>
       </c>
-      <c r="D2" t="n">
-        <v>568509.4644290183</v>
-      </c>
       <c r="E2" t="n">
-        <v>264266.0216020366</v>
+        <v>264266.0216020365</v>
       </c>
       <c r="F2" t="n">
         <v>264266.0216020366</v>
       </c>
       <c r="G2" t="n">
-        <v>264266.0216020367</v>
+        <v>264266.0216020365</v>
       </c>
       <c r="H2" t="n">
         <v>264266.0216020366</v>
       </c>
       <c r="I2" t="n">
-        <v>340748.2627589335</v>
+        <v>340748.2627589336</v>
       </c>
       <c r="J2" t="n">
+        <v>340748.2627589336</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340748.2627589336</v>
+      </c>
+      <c r="L2" t="n">
         <v>340748.2627589333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>340748.2627589334</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340748.2627589335</v>
       </c>
       <c r="M2" t="n">
         <v>264266.0216020367</v>
@@ -26352,10 +26352,10 @@
         <v>264266.0216020367</v>
       </c>
       <c r="O2" t="n">
-        <v>264266.0216020367</v>
+        <v>264266.0216020368</v>
       </c>
       <c r="P2" t="n">
-        <v>264266.0216020366</v>
+        <v>264266.0216020365</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>524333.351700978</v>
+        <v>524333.3517009779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59393.84367305897</v>
+        <v>59393.84367305903</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427315.5897743299</v>
+        <v>427315.5897743298</v>
       </c>
       <c r="C4" t="n">
         <v>427315.5897743299</v>
       </c>
       <c r="D4" t="n">
-        <v>427315.5897743299</v>
+        <v>427315.5897743298</v>
       </c>
       <c r="E4" t="n">
-        <v>13015.31957282669</v>
+        <v>13015.3195728267</v>
       </c>
       <c r="F4" t="n">
         <v>13015.31957282669</v>
@@ -26438,28 +26438,28 @@
         <v>13015.31957282669</v>
       </c>
       <c r="I4" t="n">
-        <v>57774.04656058887</v>
+        <v>57774.04656058895</v>
       </c>
       <c r="J4" t="n">
-        <v>57774.04656058888</v>
+        <v>57774.04656058895</v>
       </c>
       <c r="K4" t="n">
-        <v>57774.04656058887</v>
+        <v>57774.04656058895</v>
       </c>
       <c r="L4" t="n">
-        <v>57774.04656058887</v>
+        <v>57774.04656058895</v>
       </c>
       <c r="M4" t="n">
-        <v>13015.3195728267</v>
+        <v>13015.31957282671</v>
       </c>
       <c r="N4" t="n">
-        <v>13015.3195728267</v>
+        <v>13015.31957282671</v>
       </c>
       <c r="O4" t="n">
+        <v>13015.31957282671</v>
+      </c>
+      <c r="P4" t="n">
         <v>13015.31957282669</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13015.3195728267</v>
       </c>
     </row>
     <row r="5">
@@ -26490,25 +26490,25 @@
         <v>25997.78604834725</v>
       </c>
       <c r="I5" t="n">
-        <v>39577.55483427234</v>
+        <v>39577.55483427237</v>
       </c>
       <c r="J5" t="n">
-        <v>39577.55483427234</v>
+        <v>39577.55483427237</v>
       </c>
       <c r="K5" t="n">
-        <v>39577.55483427234</v>
+        <v>39577.55483427237</v>
       </c>
       <c r="L5" t="n">
-        <v>39577.55483427234</v>
+        <v>39577.55483427237</v>
       </c>
       <c r="M5" t="n">
-        <v>25997.78604834726</v>
+        <v>25997.78604834727</v>
       </c>
       <c r="N5" t="n">
-        <v>25997.78604834726</v>
+        <v>25997.78604834727</v>
       </c>
       <c r="O5" t="n">
-        <v>25997.78604834726</v>
+        <v>25997.78604834727</v>
       </c>
       <c r="P5" t="n">
         <v>25997.78604834726</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107566.2746546885</v>
+        <v>107522.1988832086</v>
       </c>
       <c r="C6" t="n">
-        <v>107566.2746546886</v>
+        <v>107522.1988832084</v>
       </c>
       <c r="D6" t="n">
-        <v>107566.2746546885</v>
+        <v>107522.1988832087</v>
       </c>
       <c r="E6" t="n">
-        <v>-299080.4357201153</v>
+        <v>-309990.348735416</v>
       </c>
       <c r="F6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.002965562</v>
       </c>
       <c r="G6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.002965562</v>
       </c>
       <c r="H6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.002965562</v>
       </c>
       <c r="I6" t="n">
-        <v>184002.8176910133</v>
+        <v>175824.4132884589</v>
       </c>
       <c r="J6" t="n">
-        <v>243396.6613640721</v>
+        <v>235218.256961518</v>
       </c>
       <c r="K6" t="n">
-        <v>243396.6613640721</v>
+        <v>235218.2569615179</v>
       </c>
       <c r="L6" t="n">
-        <v>243396.6613640723</v>
+        <v>235218.2569615176</v>
       </c>
       <c r="M6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.0029655621</v>
       </c>
       <c r="N6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.0029655621</v>
       </c>
       <c r="O6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.0029655621</v>
       </c>
       <c r="P6" t="n">
-        <v>225252.9159808627</v>
+        <v>214343.0029655619</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569.6338193771631</v>
+        <v>569.633819377163</v>
       </c>
       <c r="F3" t="n">
         <v>569.6338193771631</v>
@@ -26810,25 +26810,25 @@
         <v>223.3514602948207</v>
       </c>
       <c r="I4" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="J4" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="K4" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="L4" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M4" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="N4" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3514602948207</v>
+        <v>223.3514602948209</v>
       </c>
       <c r="P4" t="n">
         <v>223.3514602948207</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569.6338193771631</v>
+        <v>569.633819377163</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>223.3514602948206</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>223.3514602948206</v>
+        <v>223.3514602948208</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>223.3514602948206</v>
+        <v>223.3514602948207</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>2.289985203526282</v>
       </c>
       <c r="H11" t="n">
-        <v>23.45231096561355</v>
+        <v>23.45231096561354</v>
       </c>
       <c r="I11" t="n">
-        <v>88.28465455894708</v>
+        <v>88.28465455894707</v>
       </c>
       <c r="J11" t="n">
-        <v>194.359631667789</v>
+        <v>194.3596316677889</v>
       </c>
       <c r="K11" t="n">
-        <v>291.2947053330566</v>
+        <v>291.2947053330565</v>
       </c>
       <c r="L11" t="n">
-        <v>361.3768400054741</v>
+        <v>361.376840005474</v>
       </c>
       <c r="M11" t="n">
-        <v>402.1013643686846</v>
+        <v>402.1013643686845</v>
       </c>
       <c r="N11" t="n">
-        <v>408.6077848282037</v>
+        <v>408.6077848282036</v>
       </c>
       <c r="O11" t="n">
-        <v>385.8367444606392</v>
+        <v>385.8367444606391</v>
       </c>
       <c r="P11" t="n">
         <v>329.302734748584</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.292639647299</v>
+        <v>247.2926396472989</v>
       </c>
       <c r="R11" t="n">
-        <v>143.848283041008</v>
+        <v>143.8482830410079</v>
       </c>
       <c r="S11" t="n">
-        <v>52.18303782535521</v>
+        <v>52.1830378253552</v>
       </c>
       <c r="T11" t="n">
-        <v>10.02441022843631</v>
+        <v>10.0244102284363</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1831988162821026</v>
+        <v>0.1831988162821025</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.22525010205654</v>
+        <v>1.225250102056539</v>
       </c>
       <c r="H12" t="n">
         <v>11.83333651196711</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18514605764841</v>
+        <v>42.1851460576484</v>
       </c>
       <c r="J12" t="n">
         <v>115.7592651245611</v>
@@ -31846,34 +31846,34 @@
         <v>197.8510219623492</v>
       </c>
       <c r="L12" t="n">
-        <v>266.0351153610044</v>
+        <v>266.0351153610043</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4504315605539</v>
+        <v>310.4504315605538</v>
       </c>
       <c r="N12" t="n">
-        <v>318.6671307098717</v>
+        <v>318.6671307098716</v>
       </c>
       <c r="O12" t="n">
         <v>291.5181679221978</v>
       </c>
       <c r="P12" t="n">
-        <v>233.9690304532352</v>
+        <v>233.9690304532351</v>
       </c>
       <c r="Q12" t="n">
         <v>156.402100746726</v>
       </c>
       <c r="R12" t="n">
-        <v>76.07298440663325</v>
+        <v>76.07298440663324</v>
       </c>
       <c r="S12" t="n">
         <v>22.75848325530457</v>
       </c>
       <c r="T12" t="n">
-        <v>4.938617735920875</v>
+        <v>4.938617735920874</v>
       </c>
       <c r="U12" t="n">
-        <v>0.080608559345825</v>
+        <v>0.08060855934582499</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,16 +31913,16 @@
         <v>1.027208526745704</v>
       </c>
       <c r="H13" t="n">
-        <v>9.132817628702719</v>
+        <v>9.132817628702718</v>
       </c>
       <c r="I13" t="n">
         <v>30.89096187704354</v>
       </c>
       <c r="J13" t="n">
-        <v>72.62364284092126</v>
+        <v>72.62364284092125</v>
       </c>
       <c r="K13" t="n">
-        <v>119.3429542891827</v>
+        <v>119.3429542891826</v>
       </c>
       <c r="L13" t="n">
         <v>152.717893149084</v>
@@ -31931,28 +31931,28 @@
         <v>161.0196056970561</v>
       </c>
       <c r="N13" t="n">
-        <v>157.190919370095</v>
+        <v>157.1909193700949</v>
       </c>
       <c r="O13" t="n">
-        <v>145.1912561258383</v>
+        <v>145.1912561258382</v>
       </c>
       <c r="P13" t="n">
         <v>124.2362021802258</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.01470672595163</v>
+        <v>86.01470672595161</v>
       </c>
       <c r="R13" t="n">
-        <v>46.18703066622046</v>
+        <v>46.18703066622045</v>
       </c>
       <c r="S13" t="n">
         <v>17.9014431433774</v>
       </c>
       <c r="T13" t="n">
-        <v>4.388981887004371</v>
+        <v>4.38898188700437</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05602955600431119</v>
+        <v>0.05602955600431118</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>17.83987475426986</v>
+        <v>17.8398747542698</v>
       </c>
       <c r="K11" t="n">
-        <v>76.70710056420054</v>
+        <v>76.70710056420049</v>
       </c>
       <c r="L11" t="n">
         <v>131.5045854097365</v>
       </c>
       <c r="M11" t="n">
-        <v>177.5137869720937</v>
+        <v>177.5137869720936</v>
       </c>
       <c r="N11" t="n">
-        <v>184.9300478215276</v>
+        <v>184.9300478215274</v>
       </c>
       <c r="O11" t="n">
         <v>161.4909883244946</v>
@@ -35430,7 +35430,7 @@
         <v>103.8505638871962</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.54459201971073</v>
+        <v>30.54459201971068</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>115.2075509364119</v>
+        <v>63.45561896234918</v>
       </c>
       <c r="L12" t="n">
         <v>130.944595075627</v>
       </c>
       <c r="M12" t="n">
-        <v>171.869748486586</v>
+        <v>171.8697484865859</v>
       </c>
       <c r="N12" t="n">
         <v>190.6089614286217</v>
       </c>
       <c r="O12" t="n">
-        <v>152.4868295888645</v>
+        <v>204.2387615629275</v>
       </c>
       <c r="P12" t="n">
         <v>103.3439832242632</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.91987101285505</v>
+        <v>19.919871012855</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>104.5685445713493</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>40.83634736835995</v>
+        <v>190.1790233780933</v>
       </c>
       <c r="M13" t="n">
-        <v>211.2170136939647</v>
+        <v>211.2170136939646</v>
       </c>
       <c r="N13" t="n">
-        <v>211.3879390347329</v>
+        <v>211.3879390347328</v>
       </c>
       <c r="O13" t="n">
         <v>179.7594641558093</v>
       </c>
       <c r="P13" t="n">
-        <v>130.3582240789096</v>
+        <v>91.83809949062933</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.45561896234921</v>
+        <v>115.2075509364119</v>
       </c>
       <c r="L15" t="n">
         <v>130.944595075627</v>
@@ -35743,7 +35743,7 @@
         <v>152.4868295888645</v>
       </c>
       <c r="P15" t="n">
-        <v>155.0959151983259</v>
+        <v>103.3439832242632</v>
       </c>
       <c r="Q15" t="n">
         <v>19.91987101285505</v>
@@ -35819,13 +35819,13 @@
         <v>211.3879390347329</v>
       </c>
       <c r="O16" t="n">
-        <v>30.41678814607619</v>
+        <v>36.67079499617969</v>
       </c>
       <c r="P16" t="n">
         <v>130.3582240789096</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>76.70710056420054</v>
       </c>
       <c r="L17" t="n">
-        <v>131.5045854097362</v>
+        <v>131.5045854097365</v>
       </c>
       <c r="M17" t="n">
         <v>177.5137869720937</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.45561896234921</v>
+        <v>115.2075509364119</v>
       </c>
       <c r="L18" t="n">
         <v>130.944595075627</v>
       </c>
       <c r="M18" t="n">
-        <v>190.8791815944497</v>
+        <v>171.869748486586</v>
       </c>
       <c r="N18" t="n">
-        <v>223.3514602948207</v>
+        <v>190.6089614286217</v>
       </c>
       <c r="O18" t="n">
         <v>152.4868295888645</v>
@@ -36047,7 +36047,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>145.4048919397094</v>
+        <v>190.1790233780933</v>
       </c>
       <c r="M19" t="n">
         <v>211.2170136939647</v>
@@ -36059,10 +36059,10 @@
         <v>179.7594641558093</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3582240789096</v>
+        <v>91.83809949062909</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>190.1790233780933</v>
       </c>
       <c r="M22" t="n">
-        <v>166.4428822555806</v>
+        <v>211.2170136939647</v>
       </c>
       <c r="N22" t="n">
         <v>211.3879390347329</v>
@@ -36296,10 +36296,10 @@
         <v>179.7594641558093</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3582240789096</v>
+        <v>91.83809949062909</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>17.83987475426986</v>
       </c>
       <c r="K23" t="n">
-        <v>413.8183296382119</v>
+        <v>76.70710056420054</v>
       </c>
       <c r="L23" t="n">
         <v>131.5045854097365</v>
       </c>
       <c r="M23" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="N23" t="n">
-        <v>446.7029205896412</v>
+        <v>294.1029314057617</v>
       </c>
       <c r="O23" t="n">
-        <v>161.4909883244946</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="P23" t="n">
-        <v>118.1614078406214</v>
+        <v>103.8505638871962</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.54459201971073</v>
+        <v>251.3521823060116</v>
       </c>
       <c r="R23" t="n">
-        <v>1.997460340130885</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>107.6786759672174</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>63.45561896234921</v>
       </c>
       <c r="L24" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M24" t="n">
-        <v>171.869748486586</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="N24" t="n">
         <v>190.6089614286217</v>
       </c>
       <c r="O24" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="P24" t="n">
         <v>103.3439832242632</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.4002502581381</v>
+        <v>71.24575412230107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>193.7003545332266</v>
+        <v>95.02889508361508</v>
       </c>
       <c r="K26" t="n">
         <v>76.70710056420054</v>
       </c>
       <c r="L26" t="n">
-        <v>309.0636389983471</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M26" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="N26" t="n">
-        <v>446.7029205896412</v>
+        <v>184.9300478215276</v>
       </c>
       <c r="O26" t="n">
         <v>161.4909883244946</v>
@@ -36615,10 +36615,10 @@
         <v>103.8505638871962</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.54459201971073</v>
+        <v>251.3521823060116</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.997460340130885</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>338.499465455431</v>
       </c>
       <c r="L27" t="n">
-        <v>130.944595075627</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M27" t="n">
-        <v>446.7029205896412</v>
+        <v>171.869748486586</v>
       </c>
       <c r="N27" t="n">
-        <v>446.7029205896412</v>
+        <v>190.6089614286217</v>
       </c>
       <c r="O27" t="n">
-        <v>152.4868295888645</v>
+        <v>166.6168499235264</v>
       </c>
       <c r="P27" t="n">
-        <v>103.3439832242632</v>
+        <v>434.5452626097979</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.0823649829899</v>
+        <v>19.91987101285505</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>76.70710056420054</v>
       </c>
       <c r="L29" t="n">
-        <v>131.5045854097365</v>
+        <v>309.0636389983478</v>
       </c>
       <c r="M29" t="n">
-        <v>177.5137869720937</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="N29" t="n">
-        <v>446.7029205896412</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="O29" t="n">
         <v>161.4909883244946</v>
       </c>
       <c r="P29" t="n">
-        <v>438.5212203855382</v>
+        <v>103.8505638871962</v>
       </c>
       <c r="Q29" t="n">
-        <v>140.6246623873959</v>
+        <v>30.54459201971073</v>
       </c>
       <c r="R29" t="n">
-        <v>1.997460340130885</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>123.2272558785862</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>289.0665962645002</v>
+        <v>338.499465455431</v>
       </c>
       <c r="L30" t="n">
-        <v>130.944595075627</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M30" t="n">
         <v>171.869748486586</v>
       </c>
       <c r="N30" t="n">
-        <v>446.7029205896412</v>
+        <v>190.6089614286217</v>
       </c>
       <c r="O30" t="n">
         <v>152.4868295888645</v>
@@ -36931,7 +36931,7 @@
         <v>434.5452626097979</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.91987101285505</v>
+        <v>34.04989134751695</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>193.7003545332266</v>
+        <v>17.83987475426986</v>
       </c>
       <c r="K32" t="n">
-        <v>76.70710056420054</v>
+        <v>413.8183296382119</v>
       </c>
       <c r="L32" t="n">
-        <v>131.5045854097365</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M32" t="n">
-        <v>446.7029205896412</v>
+        <v>407.5883021312764</v>
       </c>
       <c r="N32" t="n">
         <v>184.9300478215276</v>
@@ -37086,10 +37086,10 @@
         <v>161.4909883244946</v>
       </c>
       <c r="P32" t="n">
-        <v>438.5212203855382</v>
+        <v>103.8505638871962</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.2084015379618</v>
+        <v>30.54459201971073</v>
       </c>
       <c r="R32" t="n">
         <v>1.997460340130885</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>63.45561896234921</v>
+        <v>338.499465455431</v>
       </c>
       <c r="L33" t="n">
-        <v>298.2876373958392</v>
+        <v>446.7029205896416</v>
       </c>
       <c r="M33" t="n">
         <v>171.869748486586</v>
       </c>
       <c r="N33" t="n">
-        <v>446.7029205896412</v>
+        <v>190.6089614286217</v>
       </c>
       <c r="O33" t="n">
-        <v>446.7029205896412</v>
+        <v>152.4868295888645</v>
       </c>
       <c r="P33" t="n">
-        <v>103.3439832242632</v>
+        <v>434.5452626097979</v>
       </c>
       <c r="Q33" t="n">
-        <v>238.4002502581381</v>
+        <v>34.04989134751695</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>17.83987475426986</v>
+        <v>17.83987475427031</v>
       </c>
       <c r="K35" t="n">
         <v>76.70710056420054</v>
       </c>
       <c r="L35" t="n">
-        <v>131.5045854097363</v>
+        <v>131.5045854097365</v>
       </c>
       <c r="M35" t="n">
         <v>177.5137869720937</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.75193197406288</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>63.45561896234921</v>
+        <v>115.2075509364128</v>
       </c>
       <c r="L36" t="n">
         <v>130.944595075627</v>
@@ -37469,7 +37469,7 @@
         <v>104.5685445713493</v>
       </c>
       <c r="L37" t="n">
-        <v>40.83634736836017</v>
+        <v>190.1790233780933</v>
       </c>
       <c r="M37" t="n">
         <v>211.2170136939647</v>
@@ -37478,13 +37478,13 @@
         <v>211.3879390347329</v>
       </c>
       <c r="O37" t="n">
-        <v>179.7594641558093</v>
+        <v>167.0290190750899</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3582240789096</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>161.4909883244946</v>
       </c>
       <c r="P38" t="n">
-        <v>103.8505638871961</v>
+        <v>103.8505638871962</v>
       </c>
       <c r="Q38" t="n">
         <v>30.54459201971073</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.75193197406355</v>
       </c>
       <c r="K39" t="n">
-        <v>115.2075509364121</v>
+        <v>63.45561896234921</v>
       </c>
       <c r="L39" t="n">
         <v>130.944595075627</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>104.5685445713493</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>40.83634736836017</v>
+        <v>151.6588987898137</v>
       </c>
       <c r="M40" t="n">
         <v>211.2170136939647</v>
@@ -37721,7 +37721,7 @@
         <v>130.3582240789096</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>161.4909883244946</v>
       </c>
       <c r="P41" t="n">
-        <v>103.8505638871961</v>
+        <v>103.8505638871962</v>
       </c>
       <c r="Q41" t="n">
         <v>30.54459201971073</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.75193197406355</v>
       </c>
       <c r="K42" t="n">
         <v>63.45561896234921</v>
@@ -37879,7 +37879,7 @@
         <v>103.3439832242632</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.6718029869179</v>
+        <v>19.91987101285505</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.5685445713493</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>190.1790233780933</v>
+        <v>151.6588987898137</v>
       </c>
       <c r="M43" t="n">
-        <v>198.4865686132447</v>
+        <v>211.2170136939647</v>
       </c>
       <c r="N43" t="n">
         <v>211.3879390347329</v>
@@ -37955,7 +37955,7 @@
         <v>179.7594641558093</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>130.3582240789096</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>104.5685445713493</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>190.1790233780933</v>
       </c>
       <c r="M46" t="n">
-        <v>211.2170136939647</v>
+        <v>172.6968891056843</v>
       </c>
       <c r="N46" t="n">
         <v>211.3879390347329</v>
       </c>
       <c r="O46" t="n">
-        <v>30.41678814607631</v>
+        <v>179.7594641558093</v>
       </c>
       <c r="P46" t="n">
         <v>130.3582240789096</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.254006850103451</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
